--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4847" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B5B7A5-A0BA-43A2-ACC6-66C750AE3749}"/>
+  <xr:revisionPtr revIDLastSave="4868" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894F49B7-EC4B-4EF9-A5B2-BE3CFDAF98E0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="725">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2224,6 +2224,12 @@
   </si>
   <si>
     <t>7-6(1) 6-7(4) 2-1 RETIRED</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>QATAR LADIES OPEN</t>
   </si>
 </sst>
 </file>
@@ -4858,7 +4864,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4880,7 +4886,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4940,6 +4946,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5311,18 +5321,18 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5477,7 +5487,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>723</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -6085,18 +6095,18 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6414,7 +6424,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>723</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -7017,18 +7027,18 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7450,7 +7460,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>723</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -8160,18 +8170,18 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,7 +8296,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>724</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8590,7 +8600,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>723</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -8904,18 +8914,18 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9298,7 +9308,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>723</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -9929,18 +9939,18 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10309,7 +10319,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>723</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -10857,18 +10867,18 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10955,7 +10965,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>723</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -11274,8 +11284,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11434,7 +11444,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>724</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11849,8 +11859,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" activeCellId="6" sqref="E3 E8 E14 E16 E18 E21 E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16333,7 +16343,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -17374,7 +17384,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -18227,8 +18237,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18395,7 +18405,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>724</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18875,7 +18885,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4868" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894F49B7-EC4B-4EF9-A5B2-BE3CFDAF98E0}"/>
+  <xr:revisionPtr revIDLastSave="4871" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EEDAA73-4ED8-4275-A6F6-E077A5C238F7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="724">
   <si>
     <t>Semifinal</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>BRISBANE INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>MUTUA MADRID OPEN</t>
   </si>
   <si>
     <t>MIAMI OPEN</t>
@@ -4864,7 +4861,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5255,7 +5252,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5290,22 +5287,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5322,7 +5319,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5366,18 +5363,18 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -5386,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -5400,7 +5397,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -5414,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -5442,7 +5439,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -5453,7 +5450,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -5462,13 +5459,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5476,18 +5473,18 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -5516,13 +5513,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5530,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -5544,13 +5541,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5558,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -5572,7 +5569,7 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -5592,7 +5589,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -5606,7 +5603,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -5620,18 +5617,18 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -5640,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -5654,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -5668,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -5682,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5716,13 +5713,13 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5730,13 +5727,13 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5744,13 +5741,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5758,13 +5755,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5778,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -5792,7 +5789,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -5812,7 +5809,7 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5826,7 +5823,7 @@
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5845,7 +5842,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -5854,13 +5851,13 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5868,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -5896,7 +5893,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -5910,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5930,7 +5927,7 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5944,13 +5941,13 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5958,7 +5955,7 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -5972,7 +5969,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -5997,7 +5994,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -6006,13 +6003,13 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6026,13 +6023,13 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6040,13 +6037,13 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6093,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -6140,7 +6137,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -6154,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -6168,7 +6165,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -6188,7 +6185,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -6202,13 +6199,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>574</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6216,13 +6213,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6230,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -6241,13 +6238,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -6258,7 +6255,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -6267,13 +6264,13 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6281,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -6295,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -6309,13 +6306,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6334,7 +6331,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -6343,7 +6340,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -6357,7 +6354,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -6385,13 +6382,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6399,13 +6396,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6424,7 +6421,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -6433,13 +6430,13 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
+        <v>582</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>583</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6447,13 +6444,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6461,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -6481,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -6495,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -6515,7 +6512,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6571,13 +6568,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6585,7 +6582,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -6605,7 +6602,7 @@
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6613,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -6647,7 +6644,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -6661,13 +6658,13 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -6689,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -6703,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -6717,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -6757,7 +6754,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6765,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -6785,13 +6782,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6799,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
@@ -6810,7 +6807,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -6819,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -6833,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
@@ -6861,13 +6858,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6881,7 +6878,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -6895,13 +6892,13 @@
         <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6909,7 +6906,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -6929,12 +6926,12 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -6943,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -6957,13 +6954,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6977,12 +6974,12 @@
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
@@ -6997,7 +6994,7 @@
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -7011,7 +7008,7 @@
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7028,7 +7025,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7072,7 +7069,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -7086,7 +7083,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -7100,7 +7097,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -7114,13 +7111,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7128,7 +7125,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -7148,7 +7145,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7167,13 +7164,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -7184,7 +7181,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -7193,7 +7190,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -7207,7 +7204,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -7218,7 +7215,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -7227,7 +7224,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -7255,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -7269,13 +7266,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7289,7 +7286,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7308,7 +7305,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -7317,13 +7314,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7331,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -7345,13 +7342,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7379,7 +7376,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7398,7 +7395,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -7407,13 +7404,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
+        <v>606</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
         <v>607</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7427,7 +7424,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7441,7 +7438,7 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7460,7 +7457,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -7469,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -7503,7 +7500,7 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7511,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
@@ -7531,13 +7528,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7551,7 +7548,7 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7559,7 +7556,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -7573,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -7593,7 +7590,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7607,7 +7604,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -7621,7 +7618,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -7635,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -7655,7 +7652,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7663,7 +7660,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -7711,7 +7708,7 @@
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
@@ -7725,13 +7722,13 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7739,7 +7736,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -7753,7 +7750,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
@@ -7764,7 +7761,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
@@ -7773,7 +7770,7 @@
         <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
@@ -7787,13 +7784,13 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7801,13 +7798,13 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7829,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -7843,7 +7840,7 @@
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
@@ -7891,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -7905,13 +7902,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -7919,13 +7916,13 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -7939,12 +7936,12 @@
         <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
@@ -7953,13 +7950,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7973,7 +7970,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -7987,7 +7984,7 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8007,7 +8004,7 @@
         <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8015,7 +8012,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>20</v>
@@ -8029,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>20</v>
@@ -8043,13 +8040,13 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8082,7 +8079,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
         <v>17</v>
@@ -8111,7 +8108,7 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8147,7 +8144,7 @@
         <v>50</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
@@ -8170,8 +8167,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8215,7 +8212,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -8229,7 +8226,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -8243,7 +8240,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -8257,7 +8254,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -8271,7 +8268,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -8296,7 +8293,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8305,7 +8302,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -8347,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
@@ -8358,7 +8355,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -8367,7 +8364,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -8381,7 +8378,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -8395,13 +8392,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8415,7 +8412,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8423,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -8448,7 +8445,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -8457,7 +8454,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -8471,7 +8468,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -8505,7 +8502,7 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8527,18 +8524,18 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -8553,7 +8550,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -8567,7 +8564,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -8575,13 +8572,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -8600,7 +8597,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -8609,7 +8606,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -8623,13 +8620,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -8637,7 +8634,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -8651,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -8679,7 +8676,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
@@ -8699,7 +8696,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -8713,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -8733,7 +8730,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8747,7 +8744,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -8761,7 +8758,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -8775,13 +8772,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8789,7 +8786,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -8809,7 +8806,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,7 +8820,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -8831,7 +8828,7 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
@@ -8851,13 +8848,13 @@
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -8865,7 +8862,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
@@ -8876,7 +8873,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
@@ -8885,13 +8882,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -8915,7 +8912,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8959,7 +8956,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -8973,13 +8970,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8987,7 +8984,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -9001,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -9021,7 +9018,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -9035,13 +9032,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9049,13 +9046,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9063,18 +9060,18 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -9097,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -9111,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -9122,7 +9119,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -9131,7 +9128,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -9145,18 +9142,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -9165,7 +9162,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -9185,7 +9182,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9193,13 +9190,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9221,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -9232,7 +9229,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -9247,7 +9244,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9255,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -9303,12 +9300,12 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -9331,13 +9328,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9365,7 +9362,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9393,7 +9390,7 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9407,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -9441,7 +9438,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -9455,7 +9452,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -9469,7 +9466,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -9489,7 +9486,7 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -9497,13 +9494,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -9511,13 +9508,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -9531,7 +9528,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -9545,7 +9542,7 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -9559,7 +9556,7 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -9573,7 +9570,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -9587,18 +9584,18 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -9607,13 +9604,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9621,18 +9618,18 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -9641,13 +9638,13 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9655,13 +9652,13 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -9675,7 +9672,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -9689,7 +9686,7 @@
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,7 +9700,7 @@
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -9717,7 +9714,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -9731,7 +9728,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -9751,12 +9748,12 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -9765,13 +9762,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9779,13 +9776,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9799,7 +9796,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>20</v>
@@ -9813,7 +9810,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -9827,13 +9824,13 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -9841,7 +9838,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>20</v>
@@ -9875,12 +9872,12 @@
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -9909,7 +9906,7 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -9923,7 +9920,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -9940,7 +9937,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9984,7 +9981,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -9998,7 +9995,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -10012,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -10032,7 +10029,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10046,7 +10043,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -10060,13 +10057,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10074,7 +10071,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -10088,7 +10085,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -10102,7 +10099,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -10116,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -10130,7 +10127,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -10141,7 +10138,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -10164,12 +10161,12 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -10178,7 +10175,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -10192,7 +10189,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -10206,13 +10203,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10220,18 +10217,18 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -10240,13 +10237,13 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -10274,12 +10271,12 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -10288,18 +10285,18 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -10308,18 +10305,18 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -10328,7 +10325,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -10342,7 +10339,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -10356,13 +10353,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10376,7 +10373,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -10384,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
@@ -10404,13 +10401,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>679</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
         <v>680</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -10418,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -10446,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -10460,13 +10457,13 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -10480,7 +10477,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -10494,7 +10491,7 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -10528,7 +10525,7 @@
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10542,7 +10539,7 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -10556,7 +10553,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -10570,7 +10567,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -10584,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -10598,13 +10595,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -10612,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
@@ -10623,7 +10620,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
@@ -10632,18 +10629,18 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -10700,18 +10697,18 @@
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -10745,17 +10742,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10789,7 +10786,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -10803,7 +10800,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -10817,13 +10814,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>251</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10831,13 +10828,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10845,7 +10842,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
@@ -10867,8 +10864,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10903,7 +10900,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -10912,7 +10909,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -10926,7 +10923,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -10940,7 +10937,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -10954,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -10965,7 +10962,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -10980,7 +10977,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10988,13 +10985,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11008,7 +11005,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -11028,7 +11025,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -11042,13 +11039,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11056,13 +11053,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11076,13 +11073,13 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11090,13 +11087,13 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11104,7 +11101,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -11118,13 +11115,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11138,13 +11135,13 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -11152,13 +11149,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11166,7 +11163,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -11177,7 +11174,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -11186,7 +11183,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -11200,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -11228,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -11242,13 +11239,13 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11262,13 +11259,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -11285,17 +11282,17 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11320,7 +11317,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11329,7 +11326,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -11343,13 +11340,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11357,7 +11354,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -11371,7 +11368,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11385,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11405,7 +11402,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -11419,13 +11416,13 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11433,7 +11430,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -11444,7 +11441,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11453,18 +11450,18 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -11473,7 +11470,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -11484,7 +11481,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -11493,18 +11490,18 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>722</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -11513,7 +11510,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -11527,7 +11524,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -11541,7 +11538,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -11555,13 +11552,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11575,13 +11572,13 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11589,7 +11586,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -11603,7 +11600,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -11617,13 +11614,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11637,7 +11634,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11651,13 +11648,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11665,7 +11662,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -11679,7 +11676,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -11693,13 +11690,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -11707,7 +11704,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
@@ -11727,18 +11724,18 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -11747,7 +11744,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -11761,7 +11758,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -11775,7 +11772,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
@@ -11795,13 +11792,13 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
+        <v>701</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>702</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -11809,7 +11806,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -11823,7 +11820,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -11837,7 +11834,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
@@ -11860,17 +11857,17 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11895,7 +11892,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11904,13 +11901,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>704</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11918,13 +11915,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11938,7 +11935,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11952,7 +11949,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -11972,7 +11969,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11980,18 +11977,18 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -12000,7 +11997,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -12014,18 +12011,18 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -12034,13 +12031,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12048,7 +12045,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -12068,18 +12065,18 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -12088,7 +12085,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -12099,7 +12096,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -12108,13 +12105,13 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12122,7 +12119,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -12142,7 +12139,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -12165,17 +12162,17 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12200,7 +12197,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -12209,13 +12206,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12223,7 +12220,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -12234,7 +12231,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -12243,13 +12240,13 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -12257,7 +12254,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
@@ -12268,7 +12265,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -12277,7 +12274,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -12291,7 +12288,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -12305,7 +12302,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -12319,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -12333,7 +12330,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -12344,7 +12341,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -12353,7 +12350,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -12367,7 +12364,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -12381,7 +12378,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -12395,13 +12392,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -12409,18 +12406,18 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -12443,7 +12440,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -12457,7 +12454,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -12471,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -12485,7 +12482,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -12496,7 +12493,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -12505,18 +12502,18 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -12525,7 +12522,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -12539,7 +12536,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -12553,7 +12550,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -12567,13 +12564,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -12581,18 +12578,18 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -12601,13 +12598,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -12615,7 +12612,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -12629,13 +12626,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -12643,13 +12640,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -12657,7 +12654,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
@@ -12680,17 +12677,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12724,13 +12721,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12752,7 +12749,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -12775,38 +12772,38 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -13261,7 +13258,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
@@ -13307,17 +13304,17 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13348,10 +13345,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -13362,10 +13359,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -13378,10 +13375,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -13408,7 +13405,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -13417,7 +13414,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -13428,7 +13425,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -13437,18 +13434,18 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -13457,7 +13454,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -13468,30 +13465,30 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -13505,18 +13502,18 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -13525,7 +13522,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -13539,7 +13536,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -13553,13 +13550,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13567,13 +13564,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13581,7 +13578,7 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -13598,10 +13595,10 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -13612,10 +13609,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -13626,16 +13623,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -13654,16 +13651,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -13674,10 +13671,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -13691,7 +13688,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -13733,13 +13730,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -13747,13 +13744,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -13767,7 +13764,7 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -13781,7 +13778,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -13795,7 +13792,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -13809,18 +13806,18 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -13843,13 +13840,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -13857,18 +13854,18 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -13877,7 +13874,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
@@ -13897,7 +13894,7 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -13922,7 +13919,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -13937,7 +13934,7 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13945,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -13970,7 +13967,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -13979,7 +13976,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
@@ -13993,7 +13990,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -14007,13 +14004,13 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14021,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -14035,18 +14032,18 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
@@ -14055,7 +14052,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
@@ -14069,13 +14066,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -14083,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -14097,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
@@ -14108,7 +14105,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -14117,7 +14114,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
@@ -14131,7 +14128,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -14145,13 +14142,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -14159,13 +14156,13 @@
         <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -14183,17 +14180,17 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14227,7 +14224,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -14241,7 +14238,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -14255,18 +14252,18 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -14275,7 +14272,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -14295,12 +14292,12 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -14309,7 +14306,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -14323,13 +14320,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14337,7 +14334,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -14351,18 +14348,18 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -14371,13 +14368,13 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -14385,13 +14382,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -14399,7 +14396,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -14410,7 +14407,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -14419,13 +14416,13 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -14433,7 +14430,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -14447,7 +14444,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
@@ -14458,7 +14455,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -14467,13 +14464,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14481,13 +14478,13 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14495,13 +14492,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -14515,7 +14512,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -14529,7 +14526,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -14543,13 +14540,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -14563,7 +14560,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -14577,7 +14574,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -14591,13 +14588,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -14605,7 +14602,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -14619,7 +14616,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
@@ -14630,7 +14627,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
@@ -14639,7 +14636,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -14667,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -14681,13 +14678,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -14695,13 +14692,13 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -14715,7 +14712,7 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -14729,7 +14726,7 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -14757,7 +14754,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -14771,13 +14768,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -14785,13 +14782,13 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -14799,7 +14796,7 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -14810,7 +14807,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -14819,7 +14816,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -14833,7 +14830,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -14847,7 +14844,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
@@ -14858,7 +14855,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -14867,7 +14864,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
@@ -14881,18 +14878,18 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -14901,13 +14898,13 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -14921,13 +14918,13 @@
         <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -14941,7 +14938,7 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -14949,13 +14946,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -14969,7 +14966,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -14989,7 +14986,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -14997,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
@@ -15008,7 +15005,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -15017,7 +15014,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -15031,7 +15028,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
@@ -15059,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>20</v>
@@ -15073,7 +15070,7 @@
         <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -15084,7 +15081,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
@@ -15099,7 +15096,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -15107,7 +15104,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>20</v>
@@ -15121,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>20</v>
@@ -15135,7 +15132,7 @@
         <v>50</v>
       </c>
       <c r="D76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>20</v>
@@ -15146,7 +15143,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
@@ -15169,7 +15166,7 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>20</v>
@@ -15189,7 +15186,7 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -15197,18 +15194,18 @@
         <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B83" t="s">
         <v>17</v>
@@ -15217,13 +15214,13 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
         <v>346</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -15231,13 +15228,13 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -15245,18 +15242,18 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
@@ -15265,7 +15262,7 @@
         <v>62</v>
       </c>
       <c r="D87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
@@ -15279,7 +15276,7 @@
         <v>62</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>20</v>
@@ -15293,7 +15290,7 @@
         <v>62</v>
       </c>
       <c r="D89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>20</v>
@@ -15307,13 +15304,13 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
+        <v>349</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
         <v>350</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -15321,13 +15318,13 @@
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -15345,17 +15342,17 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15389,7 +15386,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -15403,13 +15400,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -15417,7 +15414,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -15431,13 +15428,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -15445,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -15459,18 +15456,18 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -15479,13 +15476,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15493,7 +15490,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -15507,13 +15504,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15521,18 +15518,18 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -15541,7 +15538,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -15555,7 +15552,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -15583,18 +15580,18 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -15603,7 +15600,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -15617,7 +15614,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -15631,13 +15628,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -15645,7 +15642,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -15659,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -15670,7 +15667,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -15679,7 +15676,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -15693,7 +15690,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -15707,7 +15704,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -15721,13 +15718,13 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -15735,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -15749,7 +15746,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
@@ -15760,7 +15757,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -15769,7 +15766,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -15783,7 +15780,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -15797,7 +15794,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
@@ -15817,7 +15814,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -15831,13 +15828,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -15845,7 +15842,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -15859,13 +15856,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -15879,13 +15876,13 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -15893,7 +15890,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -15907,7 +15904,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -15921,7 +15918,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -15935,7 +15932,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
@@ -15946,7 +15943,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -15955,7 +15952,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -15975,7 +15972,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -15983,13 +15980,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -15997,13 +15994,13 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -16017,7 +16014,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -16031,7 +16028,7 @@
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
@@ -16045,7 +16042,7 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
@@ -16059,7 +16056,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -16073,7 +16070,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -16087,13 +16084,13 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -16101,18 +16098,18 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
@@ -16121,13 +16118,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -16135,13 +16132,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -16155,7 +16152,7 @@
         <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -16169,7 +16166,7 @@
         <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -16183,7 +16180,7 @@
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
@@ -16197,7 +16194,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -16211,7 +16208,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -16225,13 +16222,13 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -16239,13 +16236,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -16259,13 +16256,13 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -16273,7 +16270,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
@@ -16287,13 +16284,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -16307,13 +16304,13 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -16321,13 +16318,13 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -16344,17 +16341,17 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16388,7 +16385,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -16402,13 +16399,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16416,7 +16413,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -16444,13 +16441,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16458,18 +16455,18 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -16478,7 +16475,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -16506,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -16517,7 +16514,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -16526,7 +16523,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -16540,7 +16537,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -16554,13 +16551,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16568,7 +16565,7 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -16579,7 +16576,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -16588,7 +16585,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -16602,7 +16599,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -16616,13 +16613,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -16630,7 +16627,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -16644,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -16658,7 +16655,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -16669,7 +16666,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -16692,13 +16689,13 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -16706,13 +16703,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -16720,7 +16717,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -16734,13 +16731,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -16748,7 +16745,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
@@ -16768,13 +16765,13 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -16782,7 +16779,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -16796,7 +16793,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -16810,18 +16807,18 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -16830,7 +16827,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -16858,7 +16855,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -16872,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
@@ -16892,7 +16889,7 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -16906,7 +16903,7 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -16920,7 +16917,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -16934,13 +16931,13 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -16948,7 +16945,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -16962,18 +16959,18 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -16982,7 +16979,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -16996,7 +16993,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -17010,7 +17007,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -17024,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
@@ -17038,18 +17035,18 @@
         <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
@@ -17058,7 +17055,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -17072,7 +17069,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -17086,7 +17083,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -17100,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
@@ -17120,7 +17117,7 @@
         <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
@@ -17148,7 +17145,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -17176,13 +17173,13 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -17190,13 +17187,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -17204,13 +17201,13 @@
         <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -17224,7 +17221,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
@@ -17238,18 +17235,18 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
@@ -17258,7 +17255,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -17272,7 +17269,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
@@ -17286,13 +17283,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -17306,12 +17303,12 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -17320,7 +17317,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>20</v>
@@ -17340,7 +17337,7 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -17348,13 +17345,13 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -17362,7 +17359,7 @@
         <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>20</v>
@@ -17385,17 +17382,17 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17429,13 +17426,13 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -17443,7 +17440,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -17457,7 +17454,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -17471,7 +17468,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -17485,13 +17482,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -17499,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -17513,7 +17510,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -17524,7 +17521,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -17533,13 +17530,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -17547,13 +17544,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -17567,12 +17564,12 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -17581,13 +17578,13 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -17609,18 +17606,18 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -17629,7 +17626,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -17643,13 +17640,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -17657,7 +17654,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
@@ -17668,7 +17665,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -17677,13 +17674,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -17697,7 +17694,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -17705,13 +17702,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -17731,7 +17728,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -17739,7 +17736,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -17753,7 +17750,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -17767,13 +17764,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -17781,7 +17778,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -17806,7 +17803,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -17815,7 +17812,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -17829,13 +17826,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -17843,7 +17840,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -17857,13 +17854,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17877,7 +17874,7 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -17891,13 +17888,13 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -17905,7 +17902,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -17919,7 +17916,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -17933,7 +17930,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -17944,7 +17941,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -17953,7 +17950,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -17967,7 +17964,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -17981,7 +17978,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -17995,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -18009,18 +18006,18 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -18029,13 +18026,13 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -18043,13 +18040,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -18071,13 +18068,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -18091,7 +18088,7 @@
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -18105,7 +18102,7 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -18125,7 +18122,7 @@
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -18145,12 +18142,12 @@
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
@@ -18159,13 +18156,13 @@
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -18201,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -18215,13 +18212,13 @@
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -18238,17 +18235,17 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18282,7 +18279,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -18296,7 +18293,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -18310,7 +18307,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -18338,7 +18335,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -18377,13 +18374,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -18394,7 +18391,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -18405,7 +18402,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18414,13 +18411,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -18428,7 +18425,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -18470,18 +18467,18 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -18490,7 +18487,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -18504,7 +18501,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -18518,13 +18515,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -18538,7 +18535,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -18546,18 +18543,18 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -18566,7 +18563,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -18580,13 +18577,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -18594,13 +18591,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -18608,13 +18605,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -18622,18 +18619,18 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -18642,7 +18639,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -18656,7 +18653,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -18670,13 +18667,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -18690,13 +18687,13 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -18710,7 +18707,7 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -18718,13 +18715,13 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -18738,7 +18735,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -18752,13 +18749,13 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
+        <v>503</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>504</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -18766,13 +18763,13 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -18780,13 +18777,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -18794,13 +18791,13 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -18814,7 +18811,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -18828,7 +18825,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
@@ -18839,7 +18836,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -18848,13 +18845,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
@@ -18862,13 +18859,13 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -18886,17 +18883,17 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18921,7 +18918,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -18930,13 +18927,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -18944,7 +18941,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -18958,7 +18955,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -18978,13 +18975,13 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -18992,13 +18989,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -19006,13 +19003,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -19026,7 +19023,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -19034,7 +19031,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -19045,7 +19042,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -19054,7 +19051,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -19068,7 +19065,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -19082,7 +19079,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -19096,13 +19093,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>522</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -19130,7 +19127,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -19144,13 +19141,13 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -19164,13 +19161,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -19178,7 +19175,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -19192,7 +19189,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -19203,7 +19200,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -19212,7 +19209,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -19232,7 +19229,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -19240,13 +19237,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -19274,12 +19271,12 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -19288,7 +19285,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -19302,7 +19299,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -19316,13 +19313,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -19336,7 +19333,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -19344,13 +19341,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -19378,7 +19375,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -19392,7 +19389,7 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -19406,18 +19403,18 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -19426,13 +19423,13 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -19454,13 +19451,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -19468,7 +19465,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -19488,7 +19485,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -19502,7 +19499,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -19522,7 +19519,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -19530,7 +19527,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4871" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EEDAA73-4ED8-4275-A6F6-E077A5C238F7}"/>
+  <xr:revisionPtr revIDLastSave="4872" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13D49A5C-0138-4A18-B228-3F16C430E67A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="2018" sheetId="25" r:id="rId18"/>
     <sheet name="2019" sheetId="26" r:id="rId19"/>
     <sheet name="2020" sheetId="27" r:id="rId20"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
+    <sheet name="Stats" sheetId="1" r:id="rId21"/>
     <sheet name="Wins-Losses" sheetId="28" r:id="rId22"/>
     <sheet name="Winning Percentile Range" sheetId="29" r:id="rId23"/>
   </sheets>
@@ -2561,7 +2561,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2582,7 +2582,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2651,7 +2651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$21</c:f>
+              <c:f>Stats!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2729,7 +2729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2750,7 +2750,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2819,7 +2819,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$21</c:f>
+              <c:f>Stats!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3278,7 +3278,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3327,7 +3327,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3396,7 +3396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$21</c:f>
+              <c:f>Stats!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4872,7 +4872,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{548B1B85-60FD-4314-9118-8CAF35106C63}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4916,7 +4916,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4943,10 +4943,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8167,7 +8163,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -12771,8 +12767,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4872" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13D49A5C-0138-4A18-B228-3F16C430E67A}"/>
+  <xr:revisionPtr revIDLastSave="4873" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35301A81-E7A0-4B28-87A5-2C6B304E5D27}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -4861,7 +4861,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4916,7 +4916,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4943,6 +4943,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5247,21 +5251,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -5314,21 +5318,21 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5368,7 +5372,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>548</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -5574,7 +5578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>29</v>
       </c>
@@ -5732,7 +5736,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -5746,7 +5750,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5794,7 +5798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5822,7 +5826,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -5836,7 +5840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5898,7 +5902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -5974,7 +5978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -5988,7 +5992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>280</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -6088,21 +6092,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>570</v>
       </c>
@@ -6142,7 +6146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6218,7 +6222,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -6269,7 +6273,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -6297,7 +6301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6345,7 +6349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>722</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6463,7 +6467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -6511,7 +6515,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>50</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6559,7 +6563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -6587,7 +6591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -6615,7 +6619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6649,7 +6653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>50</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6897,7 +6901,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -6945,7 +6949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -6993,7 +6997,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>62</v>
       </c>
@@ -7020,21 +7024,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7054,7 +7058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7074,7 +7078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7102,7 +7106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -7130,7 +7134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -7158,7 +7162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -7209,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -7243,7 +7247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7257,7 +7261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7271,7 +7275,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7285,7 +7289,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>50</v>
       </c>
@@ -7299,7 +7303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7319,7 +7323,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7347,7 +7351,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -7409,7 +7413,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -7423,7 +7427,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -7437,7 +7441,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>722</v>
       </c>
@@ -7471,7 +7475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7499,7 +7503,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -7513,7 +7517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -7589,7 +7593,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -7623,7 +7627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -7665,7 +7669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>617</v>
       </c>
@@ -7775,7 +7779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -7789,7 +7793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -7817,7 +7821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>50</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -7865,7 +7869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7907,7 +7911,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7921,7 +7925,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7969,7 +7973,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>4</v>
       </c>
@@ -8017,7 +8021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -8031,7 +8035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -8059,7 +8063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>62</v>
       </c>
@@ -8107,7 +8111,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>62</v>
       </c>
@@ -8121,7 +8125,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>50</v>
       </c>
@@ -8163,21 +8167,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -8217,7 +8221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -8245,7 +8249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -8259,7 +8263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -8273,7 +8277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -8287,7 +8291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>723</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -8349,7 +8353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8369,7 +8373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8383,7 +8387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -8411,7 +8415,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -8425,7 +8429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -8439,7 +8443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -8473,7 +8477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -8487,7 +8491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -8501,7 +8505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -8529,7 +8533,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -8577,7 +8581,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>50</v>
       </c>
@@ -8591,7 +8595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>722</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8625,7 +8629,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8639,7 +8643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8667,7 +8671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -8681,7 +8685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -8749,7 +8753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -8777,7 +8781,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8823,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -8853,7 +8857,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -8907,21 +8911,21 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8941,7 +8945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -8961,7 +8965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8975,7 +8979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8989,7 +8993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9003,7 +9007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -9023,7 +9027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -9051,7 +9055,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9065,7 +9069,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -9085,7 +9089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9099,7 +9103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -9133,7 +9137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -9223,7 +9227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9257,7 +9261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9271,7 +9275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -9285,7 +9289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -9299,7 +9303,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -9319,7 +9323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -9333,7 +9337,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -9347,7 +9351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -9375,7 +9379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -9389,7 +9393,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -9409,7 +9413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9423,7 +9427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -9443,7 +9447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9457,7 +9461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9471,7 +9475,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9499,7 +9503,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -9513,7 +9517,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -9527,7 +9531,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9561,7 +9565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9575,7 +9579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9589,7 +9593,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -9609,7 +9613,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9623,7 +9627,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -9643,7 +9647,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -9657,7 +9661,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -9705,7 +9709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>29</v>
       </c>
@@ -9719,7 +9723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -9733,7 +9737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9747,7 +9751,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -9767,7 +9771,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -9781,7 +9785,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -9801,7 +9805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -9815,7 +9819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -9843,7 +9847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -9857,7 +9861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>50</v>
       </c>
@@ -9871,7 +9875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -9891,7 +9895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>62</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>62</v>
       </c>
@@ -9932,21 +9936,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -9986,7 +9990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -10000,7 +10004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>50</v>
       </c>
@@ -10028,7 +10032,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10048,7 +10052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -10062,7 +10066,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10104,7 +10108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>50</v>
       </c>
@@ -10132,7 +10136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>482</v>
       </c>
@@ -10149,7 +10153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>89</v>
       </c>
@@ -10160,7 +10164,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>672</v>
       </c>
@@ -10180,7 +10184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -10208,7 +10212,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -10222,7 +10226,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -10242,7 +10246,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -10270,7 +10274,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -10310,7 +10314,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -10344,7 +10348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -10358,7 +10362,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -10372,7 +10376,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -10386,7 +10390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -10406,7 +10410,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -10420,7 +10424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -10434,7 +10438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -10448,7 +10452,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -10462,7 +10466,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -10482,7 +10486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -10496,7 +10500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10524,7 +10528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -10544,7 +10548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -10558,7 +10562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10586,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -10600,7 +10604,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>62</v>
       </c>
@@ -10668,7 +10672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>62</v>
       </c>
@@ -10682,7 +10686,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>100</v>
       </c>
@@ -10737,21 +10741,21 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10771,7 +10775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -10805,7 +10809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -10819,7 +10823,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10833,7 +10837,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10860,21 +10864,21 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10894,7 +10898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -10914,7 +10918,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10928,7 +10932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10942,7 +10946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +10960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>722</v>
       </c>
@@ -10976,7 +10980,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10990,7 +10994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -11024,7 +11028,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11044,7 +11048,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -11058,7 +11062,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -11078,7 +11082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -11092,7 +11096,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -11106,7 +11110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -11120,7 +11124,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11154,7 +11158,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11168,7 +11172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11216,7 +11220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11230,7 +11234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -11244,7 +11248,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -11277,21 +11281,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11311,7 +11315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11331,7 +11335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -11345,7 +11349,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -11373,7 +11377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -11387,7 +11391,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -11407,7 +11411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -11421,7 +11425,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>723</v>
       </c>
@@ -11455,7 +11459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -11475,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -11495,7 +11499,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>722</v>
       </c>
@@ -11515,7 +11519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11529,7 +11533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11557,7 +11561,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -11577,7 +11581,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11605,7 +11609,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11619,7 +11623,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11633,7 +11637,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -11667,7 +11671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11681,7 +11685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11695,7 +11699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11709,7 +11713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -11777,7 +11781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -11797,7 +11801,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11852,21 +11856,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11886,7 +11890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11906,7 +11910,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -11920,7 +11924,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -11954,7 +11958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11968,7 +11972,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11982,7 +11986,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>709</v>
       </c>
@@ -12002,7 +12006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12016,7 +12020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>711</v>
       </c>
@@ -12036,7 +12040,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12050,7 +12054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12124,7 +12128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -12157,21 +12161,21 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12191,7 +12195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -12211,7 +12215,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12225,7 +12229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -12259,7 +12263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -12279,7 +12283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12293,7 +12297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12307,7 +12311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12321,7 +12325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12369,7 +12373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12383,7 +12387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12397,7 +12401,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -12431,7 +12435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12445,7 +12449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12473,7 +12477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -12487,7 +12491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -12507,7 +12511,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12541,7 +12545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12555,7 +12559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -12583,7 +12587,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -12603,7 +12607,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12617,7 +12621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -12631,7 +12635,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -12645,7 +12649,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -12672,21 +12676,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12706,7 +12710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12734,7 +12738,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -12767,22 +12771,22 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -12802,7 +12806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -12823,7 +12827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -12844,7 +12848,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -12865,7 +12869,7 @@
         <v>0.65789473684210531</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -12908,7 +12912,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -12930,7 +12934,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -12952,7 +12956,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -12974,7 +12978,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -12996,7 +13000,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -13017,7 +13021,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -13038,7 +13042,7 @@
         <v>0.67441860465116277</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -13059,7 +13063,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -13101,7 +13105,7 @@
         <v>0.73469387755102045</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -13143,7 +13147,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -13164,7 +13168,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -13185,7 +13189,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -13206,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -13227,7 +13231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>0.73626373626373631</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -13299,21 +13303,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13333,7 +13337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -13353,7 +13357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>189</v>
       </c>
@@ -13367,7 +13371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13383,7 +13387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13399,7 +13403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -13419,7 +13423,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -13459,7 +13463,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>717</v>
       </c>
@@ -13479,7 +13483,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>189</v>
       </c>
@@ -13493,7 +13497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13507,7 +13511,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -13527,7 +13531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -13541,7 +13545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -13555,7 +13559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -13569,7 +13573,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>50</v>
       </c>
@@ -13583,7 +13587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13603,7 +13607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -13617,7 +13621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>190</v>
       </c>
@@ -13631,7 +13635,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -13665,7 +13669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>189</v>
       </c>
@@ -13679,7 +13683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -13707,7 +13711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -13735,7 +13739,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -13749,7 +13753,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -13769,7 +13773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -13783,7 +13787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -13811,7 +13815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -13831,7 +13835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -13845,7 +13849,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -13859,7 +13863,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -13879,7 +13883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -13899,7 +13903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -13913,7 +13917,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -13933,7 +13937,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -13947,7 +13951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -13961,7 +13965,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13995,7 +13999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14009,7 +14013,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14023,7 +14027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>50</v>
       </c>
@@ -14037,7 +14041,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14071,7 +14075,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14085,7 +14089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14099,7 +14103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -14119,7 +14123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -14133,7 +14137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -14147,7 +14151,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -14175,21 +14179,21 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14209,7 +14213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14229,7 +14233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -14243,7 +14247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -14277,7 +14281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14291,7 +14295,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -14311,7 +14315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14325,7 +14329,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14339,7 +14343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14353,7 +14357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -14373,7 +14377,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14387,7 +14391,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14401,7 +14405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -14421,7 +14425,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -14435,7 +14439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -14449,7 +14453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -14469,7 +14473,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14483,7 +14487,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14497,7 +14501,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -14517,7 +14521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -14531,7 +14535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -14545,7 +14549,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -14565,7 +14569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -14579,7 +14583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14593,7 +14597,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14607,7 +14611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14621,7 +14625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -14641,7 +14645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -14655,7 +14659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -14683,7 +14687,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -14697,7 +14701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -14717,7 +14721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -14731,7 +14735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -14745,7 +14749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14759,7 +14763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14773,7 +14777,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14787,7 +14791,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -14801,7 +14805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>320</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -14835,7 +14839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -14849,7 +14853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14883,7 +14887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -14923,7 +14927,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>29</v>
       </c>
@@ -14937,7 +14941,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -14951,7 +14955,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -14971,7 +14975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -14985,7 +14989,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14999,7 +15003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -15019,7 +15023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -15033,7 +15037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15047,7 +15051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -15061,7 +15065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>50</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15109,7 +15113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15123,7 +15127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>50</v>
       </c>
@@ -15137,7 +15141,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -15157,7 +15161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -15171,7 +15175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -15185,7 +15189,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -15199,7 +15203,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -15219,7 +15223,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -15233,7 +15237,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -15247,7 +15251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -15267,7 +15271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>62</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>62</v>
       </c>
@@ -15295,7 +15299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -15309,7 +15313,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>50</v>
       </c>
@@ -15337,21 +15341,21 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15371,7 +15375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -15391,7 +15395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15419,7 +15423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15433,7 +15437,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15447,7 +15451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15461,7 +15465,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -15481,7 +15485,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -15495,7 +15499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -15509,7 +15513,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -15523,7 +15527,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -15543,7 +15547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -15557,7 +15561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -15571,7 +15575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -15585,7 +15589,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -15605,7 +15609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -15619,7 +15623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -15633,7 +15637,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -15647,7 +15651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -15661,7 +15665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -15681,7 +15685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15695,7 +15699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15709,7 +15713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -15723,7 +15727,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -15737,7 +15741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -15751,7 +15755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -15771,7 +15775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -15785,7 +15789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -15799,7 +15803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -15819,7 +15823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -15833,7 +15837,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -15847,7 +15851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -15861,7 +15865,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15881,7 +15885,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -15895,7 +15899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15909,7 +15913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -15923,7 +15927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -15937,7 +15941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -15957,7 +15961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15971,7 +15975,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15985,7 +15989,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -16013,7 +16017,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -16033,7 +16037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -16047,7 +16051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16061,7 +16065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16075,7 +16079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16089,7 +16093,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>227</v>
       </c>
@@ -16123,7 +16127,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16137,7 +16141,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16151,7 +16155,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -16171,7 +16175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -16185,7 +16189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -16199,7 +16203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16213,7 +16217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16227,7 +16231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -16261,7 +16265,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -16275,7 +16279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -16289,7 +16293,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -16309,7 +16313,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -16336,21 +16340,21 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16370,7 +16374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -16390,7 +16394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -16404,7 +16408,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -16418,7 +16422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -16432,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -16446,7 +16450,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -16460,7 +16464,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -16480,7 +16484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16494,7 +16498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16508,7 +16512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -16528,7 +16532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16542,7 +16546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -16570,7 +16574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -16590,7 +16594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -16604,7 +16608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -16618,7 +16622,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -16632,7 +16636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -16646,7 +16650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -16660,7 +16664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -16680,7 +16684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16694,7 +16698,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -16708,7 +16712,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -16722,7 +16726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -16736,7 +16740,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -16770,7 +16774,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -16784,7 +16788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -16798,7 +16802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -16812,7 +16816,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -16860,7 +16864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -16874,7 +16878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -16908,7 +16912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16922,7 +16926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16936,7 +16940,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16950,7 +16954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -16964,7 +16968,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -16984,7 +16988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -16998,7 +17002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -17012,7 +17016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -17026,7 +17030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>50</v>
       </c>
@@ -17040,7 +17044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -17060,7 +17064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -17074,7 +17078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -17088,7 +17092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -17122,7 +17126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -17136,7 +17140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17150,7 +17154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17164,7 +17168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -17178,7 +17182,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17192,7 +17196,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>50</v>
       </c>
@@ -17206,7 +17210,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -17226,7 +17230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -17240,7 +17244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -17260,7 +17264,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17274,7 +17278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17288,7 +17292,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>50</v>
       </c>
@@ -17302,7 +17306,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>432</v>
       </c>
@@ -17322,7 +17326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -17336,7 +17340,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -17350,7 +17354,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>50</v>
       </c>
@@ -17377,21 +17381,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17411,7 +17415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -17431,7 +17435,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -17445,7 +17449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -17459,7 +17463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -17473,7 +17477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -17487,7 +17491,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -17501,7 +17505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -17515,7 +17519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -17535,7 +17539,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -17549,7 +17553,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -17563,7 +17567,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -17583,7 +17587,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -17597,7 +17601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -17611,7 +17615,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -17631,7 +17635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -17645,7 +17649,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -17659,7 +17663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>448</v>
       </c>
@@ -17679,7 +17683,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -17693,7 +17697,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -17707,7 +17711,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -17727,7 +17731,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -17741,7 +17745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -17755,7 +17759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -17769,7 +17773,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -17783,7 +17787,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -17797,7 +17801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -17817,7 +17821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -17831,7 +17835,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -17845,7 +17849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -17859,7 +17863,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>50</v>
       </c>
@@ -17873,7 +17877,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -17893,7 +17897,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -17907,7 +17911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -17921,7 +17925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -17935,7 +17939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>465</v>
       </c>
@@ -17955,7 +17959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17969,7 +17973,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -17983,7 +17987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -17997,7 +18001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -18011,7 +18015,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>469</v>
       </c>
@@ -18031,7 +18035,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -18045,7 +18049,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -18059,7 +18063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -18073,7 +18077,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -18093,7 +18097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -18107,7 +18111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -18121,7 +18125,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -18141,7 +18145,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -18161,7 +18165,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>62</v>
       </c>
@@ -18175,7 +18179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>62</v>
       </c>
@@ -18189,7 +18193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -18203,7 +18207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>50</v>
       </c>
@@ -18230,21 +18234,21 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18264,7 +18268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -18284,7 +18288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -18298,7 +18302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -18312,7 +18316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -18340,7 +18344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -18354,7 +18358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -18368,7 +18372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -18385,7 +18389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>396</v>
       </c>
@@ -18396,7 +18400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>723</v>
       </c>
@@ -18416,7 +18420,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -18430,7 +18434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -18444,7 +18448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -18458,7 +18462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -18472,7 +18476,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -18492,7 +18496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -18506,7 +18510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -18520,7 +18524,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18548,7 +18552,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -18568,7 +18572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -18582,7 +18586,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -18596,7 +18600,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -18610,7 +18614,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -18624,7 +18628,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>717</v>
       </c>
@@ -18644,7 +18648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18658,7 +18662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18672,7 +18676,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18692,7 +18696,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -18706,7 +18710,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -18720,7 +18724,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -18734,7 +18738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -18754,7 +18758,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>29</v>
       </c>
@@ -18768,7 +18772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -18782,7 +18786,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -18796,7 +18800,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -18816,7 +18820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -18830,7 +18834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -18850,7 +18854,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18878,21 +18882,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18912,7 +18916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -18932,7 +18936,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -18946,7 +18950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -18980,7 +18984,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -18994,7 +18998,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -19008,7 +19012,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -19022,7 +19026,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -19036,7 +19040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -19056,7 +19060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -19070,7 +19074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -19084,7 +19088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -19098,7 +19102,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -19112,7 +19116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -19132,7 +19136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -19166,7 +19170,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -19180,7 +19184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -19194,7 +19198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>526</v>
       </c>
@@ -19214,7 +19218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -19228,7 +19232,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -19242,7 +19246,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -19256,7 +19260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -19270,7 +19274,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -19290,7 +19294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19304,7 +19308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -19318,7 +19322,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -19332,7 +19336,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -19346,7 +19350,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -19360,7 +19364,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -19380,7 +19384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -19394,7 +19398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -19408,7 +19412,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -19428,7 +19432,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -19442,7 +19446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19456,7 +19460,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19470,7 +19474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -19484,7 +19488,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -19498,7 +19502,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -19518,7 +19522,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4873" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35301A81-E7A0-4B28-87A5-2C6B304E5D27}"/>
+  <xr:revisionPtr revIDLastSave="4875" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BEAEFA-C080-408B-B32C-7DAA6D8B06AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="723">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2158,9 +2158,6 @@
   </si>
   <si>
     <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
-    <t>Patty Schnyder</t>
   </si>
   <si>
     <t>6-2 7-6(6)</t>
@@ -4861,7 +4858,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4872,7 +4869,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{548B1B85-60FD-4314-9118-8CAF35106C63}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5251,21 +5248,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -5318,21 +5315,21 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5352,7 +5349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5372,7 +5369,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -5392,7 +5389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -5406,7 +5403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -5420,7 +5417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -5434,7 +5431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -5448,7 +5445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5482,9 +5479,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -5502,7 +5499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>548</v>
       </c>
@@ -5522,7 +5519,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5536,7 +5533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5550,7 +5547,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5564,7 +5561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -5578,7 +5575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5598,7 +5595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -5612,7 +5609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5626,7 +5623,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -5646,7 +5643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -5660,7 +5657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5674,7 +5671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5688,7 +5685,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -5702,7 +5699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5722,7 +5719,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>29</v>
       </c>
@@ -5736,7 +5733,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -5750,7 +5747,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -5764,7 +5761,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5784,7 +5781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5798,7 +5795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5812,7 +5809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5826,7 +5823,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -5840,7 +5837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -5860,7 +5857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5874,7 +5871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5888,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5902,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5916,7 +5913,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -5930,7 +5927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5950,7 +5947,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -5964,7 +5961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -5978,7 +5975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>280</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -6032,7 +6029,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -6092,21 +6089,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6126,7 +6123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>570</v>
       </c>
@@ -6146,7 +6143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6174,7 +6171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -6208,7 +6205,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6222,7 +6219,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6236,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -6253,7 +6250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -6273,7 +6270,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6287,7 +6284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -6315,7 +6312,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -6329,7 +6326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6349,7 +6346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +6360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6377,7 +6374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6405,7 +6402,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -6419,9 +6416,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -6439,7 +6436,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6467,7 +6464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -6487,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -6501,7 +6498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -6515,7 +6512,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6529,7 +6526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>50</v>
       </c>
@@ -6543,7 +6540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6563,7 +6560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -6591,7 +6588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -6605,7 +6602,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -6619,7 +6616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -6633,7 +6630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6653,7 +6650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -6667,7 +6664,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6681,7 +6678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6695,7 +6692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -6709,7 +6706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -6723,7 +6720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -6737,7 +6734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -6757,7 +6754,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6771,7 +6768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -6791,7 +6788,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -6805,7 +6802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -6825,7 +6822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -6839,7 +6836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -6853,7 +6850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6867,7 +6864,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>50</v>
       </c>
@@ -6881,7 +6878,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6901,7 +6898,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -6915,7 +6912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6929,7 +6926,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -6949,7 +6946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6963,7 +6960,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6977,7 +6974,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -6997,7 +6994,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>62</v>
       </c>
@@ -7024,21 +7021,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7058,7 +7055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7078,7 +7075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7092,7 +7089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7120,7 +7117,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -7134,7 +7131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -7148,7 +7145,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -7162,7 +7159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -7179,7 +7176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -7199,7 +7196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -7213,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -7233,7 +7230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -7247,7 +7244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7261,7 +7258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7275,7 +7272,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7289,7 +7286,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>50</v>
       </c>
@@ -7303,7 +7300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7323,7 +7320,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -7337,7 +7334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7351,7 +7348,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7365,7 +7362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7379,7 +7376,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -7393,7 +7390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -7413,7 +7410,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -7427,7 +7424,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -7455,9 +7452,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -7475,7 +7472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7489,7 +7486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7503,7 +7500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -7517,7 +7514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -7537,7 +7534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -7551,7 +7548,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -7565,7 +7562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -7579,7 +7576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -7593,7 +7590,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -7613,7 +7610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -7627,7 +7624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -7641,7 +7638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -7655,7 +7652,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -7669,7 +7666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -7683,7 +7680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -7697,7 +7694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -7717,7 +7714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -7731,7 +7728,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -7745,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7759,7 +7756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>617</v>
       </c>
@@ -7779,7 +7776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -7793,7 +7790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -7807,7 +7804,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -7821,7 +7818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -7835,7 +7832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>50</v>
       </c>
@@ -7849,7 +7846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -7869,7 +7866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -7883,7 +7880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -7897,7 +7894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7911,7 +7908,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7925,7 +7922,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7939,7 +7936,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -7959,7 +7956,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7973,7 +7970,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -7987,7 +7984,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -8007,7 +8004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>4</v>
       </c>
@@ -8021,7 +8018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -8049,7 +8046,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -8063,7 +8060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -8077,7 +8074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -8097,7 +8094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>62</v>
       </c>
@@ -8111,7 +8108,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>62</v>
       </c>
@@ -8125,7 +8122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -8139,7 +8136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>50</v>
       </c>
@@ -8167,21 +8164,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8201,7 +8198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -8221,7 +8218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -8235,7 +8232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -8249,7 +8246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -8263,7 +8260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -8277,7 +8274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -8291,9 +8288,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8311,7 +8308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8325,7 +8322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -8339,7 +8336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -8353,7 +8350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8373,7 +8370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8387,7 +8384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8401,7 +8398,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -8415,7 +8412,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -8429,7 +8426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -8443,7 +8440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -8463,7 +8460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -8477,7 +8474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -8491,7 +8488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -8505,7 +8502,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8519,7 +8516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -8533,7 +8530,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8553,7 +8550,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8567,7 +8564,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -8581,7 +8578,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>50</v>
       </c>
@@ -8595,9 +8592,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -8615,7 +8612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8629,7 +8626,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8643,7 +8640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8657,7 +8654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8671,7 +8668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -8705,7 +8702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8719,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8733,7 +8730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -8753,7 +8750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -8767,7 +8764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -8781,7 +8778,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8795,7 +8792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -8823,7 +8820,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -8837,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -8857,7 +8854,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8871,7 +8868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -8911,21 +8908,21 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8945,7 +8942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -8965,7 +8962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8979,7 +8976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8993,7 +8990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9007,7 +9004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -9027,7 +9024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -9041,7 +9038,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -9055,7 +9052,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9069,7 +9066,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -9089,7 +9086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9103,7 +9100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -9117,7 +9114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -9137,7 +9134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9151,7 +9148,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -9171,7 +9168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9185,7 +9182,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9199,7 +9196,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9213,7 +9210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -9227,7 +9224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -9247,7 +9244,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9261,7 +9258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9275,7 +9272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -9289,7 +9286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -9303,9 +9300,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -9323,7 +9320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -9337,7 +9334,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -9351,7 +9348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -9365,7 +9362,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -9379,7 +9376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -9393,7 +9390,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -9413,7 +9410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9427,7 +9424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -9447,7 +9444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9461,7 +9458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9475,7 +9472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9489,7 +9486,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9503,7 +9500,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -9517,7 +9514,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -9531,7 +9528,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -9551,7 +9548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9565,7 +9562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9579,7 +9576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9593,7 +9590,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -9613,7 +9610,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9627,7 +9624,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -9647,7 +9644,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -9661,7 +9658,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -9675,7 +9672,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9689,7 +9686,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -9709,7 +9706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>29</v>
       </c>
@@ -9723,7 +9720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -9737,7 +9734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -9771,7 +9768,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -9785,7 +9782,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -9805,7 +9802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -9819,7 +9816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -9833,7 +9830,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -9847,7 +9844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -9861,7 +9858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>50</v>
       </c>
@@ -9875,7 +9872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -9895,7 +9892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>62</v>
       </c>
@@ -9909,7 +9906,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>62</v>
       </c>
@@ -9936,21 +9933,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9970,7 +9967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -9990,7 +9987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -10004,7 +10001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -10018,7 +10015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>50</v>
       </c>
@@ -10032,7 +10029,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10052,7 +10049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -10063,10 +10060,10 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10080,7 +10077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10094,7 +10091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10108,7 +10105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10122,7 +10119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>50</v>
       </c>
@@ -10136,7 +10133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>482</v>
       </c>
@@ -10153,7 +10150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>89</v>
       </c>
@@ -10164,7 +10161,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>672</v>
       </c>
@@ -10184,7 +10181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10198,7 +10195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -10212,7 +10209,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -10226,7 +10223,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -10246,7 +10243,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -10260,7 +10257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -10274,7 +10271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -10294,7 +10291,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -10314,9 +10311,9 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -10334,7 +10331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -10348,7 +10345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -10362,7 +10359,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -10376,7 +10373,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -10390,7 +10387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -10410,7 +10407,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -10424,7 +10421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -10438,7 +10435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -10452,7 +10449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -10466,7 +10463,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -10486,7 +10483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -10500,7 +10497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10514,7 +10511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10528,7 +10525,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -10548,7 +10545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -10562,7 +10559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10576,7 +10573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10590,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -10604,7 +10601,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -10618,7 +10615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -10635,10 +10632,10 @@
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -10658,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>62</v>
       </c>
@@ -10672,7 +10669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>62</v>
       </c>
@@ -10686,7 +10683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -10700,7 +10697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -10717,7 +10714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>100</v>
       </c>
@@ -10741,21 +10738,21 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10775,7 +10772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10795,7 +10792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -10809,7 +10806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -10823,7 +10820,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10837,7 +10834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10864,21 +10861,21 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10898,7 +10895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -10918,7 +10915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10932,7 +10929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10946,7 +10943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10960,9 +10957,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -10980,7 +10977,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10994,7 +10991,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -11014,7 +11011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -11028,7 +11025,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11048,7 +11045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -11062,7 +11059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -11082,7 +11079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -11096,7 +11093,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -11110,7 +11107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -11124,7 +11121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -11144,7 +11141,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11158,7 +11155,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11172,7 +11169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -11192,7 +11189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11206,7 +11203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11220,7 +11217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11234,7 +11231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -11248,7 +11245,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -11281,21 +11278,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11315,7 +11312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11335,7 +11332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -11349,7 +11346,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -11363,7 +11360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -11377,7 +11374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -11391,7 +11388,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -11411,7 +11408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -11425,7 +11422,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11439,9 +11436,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11459,7 +11456,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -11479,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -11499,9 +11496,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -11519,7 +11516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11533,7 +11530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11547,7 +11544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11561,7 +11558,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -11581,7 +11578,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11595,7 +11592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11609,7 +11606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11623,7 +11620,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11637,7 +11634,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11657,7 +11654,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -11671,7 +11668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11685,7 +11682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11699,7 +11696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11713,7 +11710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -11733,7 +11730,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -11753,7 +11750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11767,7 +11764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -11781,7 +11778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -11792,16 +11789,16 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>701</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -11815,7 +11812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -11829,7 +11826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11856,21 +11853,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11890,7 +11887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11901,30 +11898,30 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>703</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -11935,7 +11932,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11944,12 +11941,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -11958,7 +11955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11972,7 +11969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11986,9 +11983,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -11997,7 +11994,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -12006,7 +12003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12020,9 +12017,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -12031,16 +12028,16 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12054,7 +12051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -12065,16 +12062,16 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12085,7 +12082,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -12094,7 +12091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -12114,7 +12111,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12128,7 +12125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -12161,21 +12158,21 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12195,7 +12192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -12215,7 +12212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12229,7 +12226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12249,7 +12246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -12263,7 +12260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -12283,7 +12280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12297,7 +12294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12311,7 +12308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12325,7 +12322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -12339,7 +12336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -12359,7 +12356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12373,7 +12370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12387,7 +12384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12401,7 +12398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -12415,7 +12412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -12435,7 +12432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12449,7 +12446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12463,7 +12460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12477,7 +12474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -12491,7 +12488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -12511,7 +12508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -12531,7 +12528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12545,7 +12542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12559,7 +12556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12573,7 +12570,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -12587,7 +12584,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -12607,7 +12604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12621,7 +12618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -12635,7 +12632,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -12649,7 +12646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -12676,21 +12673,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12710,7 +12707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12730,7 +12727,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12738,7 +12735,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -12771,22 +12768,22 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -12806,7 +12803,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -12827,7 +12824,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -12848,7 +12845,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -12869,7 +12866,7 @@
         <v>0.65789473684210531</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -12890,7 +12887,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -12912,7 +12909,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -12934,7 +12931,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -12956,7 +12953,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -12978,7 +12975,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -13000,7 +12997,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -13021,7 +13018,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -13042,7 +13039,7 @@
         <v>0.67441860465116277</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -13063,7 +13060,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -13084,7 +13081,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -13105,7 +13102,7 @@
         <v>0.73469387755102045</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -13126,7 +13123,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -13147,7 +13144,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -13168,7 +13165,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -13189,7 +13186,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -13210,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -13231,7 +13228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -13256,7 +13253,7 @@
         <v>0.73626373626373631</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -13303,21 +13300,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13337,7 +13334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -13357,7 +13354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>189</v>
       </c>
@@ -13371,7 +13368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13387,7 +13384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13403,7 +13400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -13423,7 +13420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -13443,7 +13440,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -13463,9 +13460,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -13483,7 +13480,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>189</v>
       </c>
@@ -13497,7 +13494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13511,7 +13508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -13531,7 +13528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -13545,7 +13542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -13559,7 +13556,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -13573,7 +13570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>50</v>
       </c>
@@ -13587,7 +13584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13607,7 +13604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -13621,7 +13618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>190</v>
       </c>
@@ -13635,7 +13632,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -13649,7 +13646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -13669,7 +13666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>189</v>
       </c>
@@ -13683,7 +13680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -13697,7 +13694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -13711,7 +13708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13725,7 +13722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -13739,7 +13736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -13753,7 +13750,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -13773,7 +13770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -13787,7 +13784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -13801,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -13815,7 +13812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -13835,7 +13832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -13849,7 +13846,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -13863,7 +13860,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -13883,7 +13880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -13903,7 +13900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -13917,7 +13914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -13937,7 +13934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -13951,7 +13948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -13965,7 +13962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -13985,7 +13982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13999,7 +13996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14013,7 +14010,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14027,7 +14024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>50</v>
       </c>
@@ -14041,7 +14038,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14061,7 +14058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14075,7 +14072,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14089,7 +14086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14103,7 +14100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -14123,7 +14120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -14137,7 +14134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -14151,7 +14148,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -14162,7 +14159,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -14179,21 +14176,21 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14213,7 +14210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14233,7 +14230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -14247,7 +14244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -14261,7 +14258,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -14281,7 +14278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14295,7 +14292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -14315,7 +14312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14329,7 +14326,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14343,7 +14340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14357,7 +14354,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -14377,7 +14374,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14391,7 +14388,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14405,7 +14402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -14425,7 +14422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -14439,7 +14436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -14453,7 +14450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -14473,7 +14470,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14487,7 +14484,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14501,7 +14498,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -14521,7 +14518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -14535,7 +14532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -14549,7 +14546,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -14569,7 +14566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -14583,7 +14580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14611,7 +14608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14625,7 +14622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -14645,7 +14642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -14659,7 +14656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -14673,7 +14670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -14687,7 +14684,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -14701,7 +14698,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -14721,7 +14718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -14735,7 +14732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -14749,7 +14746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14763,7 +14760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14777,7 +14774,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14791,7 +14788,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -14805,7 +14802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>320</v>
       </c>
@@ -14825,7 +14822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -14839,7 +14836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -14853,7 +14850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -14873,7 +14870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14887,7 +14884,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -14907,7 +14904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -14927,7 +14924,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>29</v>
       </c>
@@ -14941,7 +14938,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -14955,7 +14952,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -14975,7 +14972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -14989,7 +14986,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -15003,7 +15000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -15023,7 +15020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -15037,7 +15034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15051,7 +15048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -15065,7 +15062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>50</v>
       </c>
@@ -15079,7 +15076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -15099,7 +15096,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15113,7 +15110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15127,7 +15124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>50</v>
       </c>
@@ -15141,7 +15138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -15161,7 +15158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -15175,7 +15172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -15189,7 +15186,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -15203,7 +15200,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -15223,7 +15220,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -15237,7 +15234,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -15251,7 +15248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -15271,7 +15268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>62</v>
       </c>
@@ -15285,7 +15282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>62</v>
       </c>
@@ -15299,7 +15296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -15313,7 +15310,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>50</v>
       </c>
@@ -15341,21 +15338,21 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15375,7 +15372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -15395,7 +15392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15409,7 +15406,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15423,7 +15420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15437,7 +15434,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15451,7 +15448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15465,7 +15462,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -15485,7 +15482,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -15499,7 +15496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -15513,7 +15510,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -15527,7 +15524,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -15547,7 +15544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -15561,7 +15558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -15575,7 +15572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -15589,7 +15586,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -15609,7 +15606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -15623,7 +15620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -15637,7 +15634,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -15651,7 +15648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -15665,7 +15662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -15685,7 +15682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15699,7 +15696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15713,7 +15710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -15727,7 +15724,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -15741,7 +15738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -15755,7 +15752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -15775,7 +15772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -15789,7 +15786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -15803,7 +15800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -15823,7 +15820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -15837,7 +15834,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -15851,7 +15848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -15865,7 +15862,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15885,7 +15882,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -15899,7 +15896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15913,7 +15910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -15927,7 +15924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -15941,7 +15938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -15961,7 +15958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15975,7 +15972,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15989,7 +15986,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -16003,7 +16000,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -16017,7 +16014,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -16037,7 +16034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -16051,7 +16048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16065,7 +16062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16079,7 +16076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16093,7 +16090,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -16107,7 +16104,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>227</v>
       </c>
@@ -16127,7 +16124,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16141,7 +16138,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16155,7 +16152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -16175,7 +16172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -16189,7 +16186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -16203,7 +16200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16217,7 +16214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16231,7 +16228,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16245,7 +16242,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -16265,7 +16262,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -16279,7 +16276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -16293,7 +16290,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -16313,7 +16310,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -16341,20 +16338,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16374,7 +16371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -16394,7 +16391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -16408,7 +16405,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -16422,7 +16419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -16436,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -16450,7 +16447,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -16464,7 +16461,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -16484,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16498,7 +16495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16512,7 +16509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -16532,7 +16529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16546,7 +16543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16560,7 +16557,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -16574,7 +16571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -16594,7 +16591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -16608,7 +16605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -16622,7 +16619,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -16636,7 +16633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -16650,7 +16647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -16664,7 +16661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -16684,7 +16681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16698,7 +16695,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -16712,7 +16709,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -16726,7 +16723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -16740,7 +16737,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -16754,7 +16751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -16774,7 +16771,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -16788,7 +16785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -16802,7 +16799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -16816,7 +16813,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -16836,7 +16833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -16850,7 +16847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -16864,7 +16861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -16878,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -16898,7 +16895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -16912,7 +16909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16926,7 +16923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16940,7 +16937,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16954,7 +16951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -16968,7 +16965,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -16988,7 +16985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -17002,7 +16999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -17016,7 +17013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -17030,7 +17027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>50</v>
       </c>
@@ -17044,7 +17041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -17064,7 +17061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -17078,7 +17075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -17092,7 +17089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -17106,7 +17103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -17126,7 +17123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -17140,7 +17137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17154,7 +17151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17168,7 +17165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -17182,7 +17179,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17196,7 +17193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>50</v>
       </c>
@@ -17210,7 +17207,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -17230,7 +17227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -17244,7 +17241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -17264,7 +17261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17278,7 +17275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17292,7 +17289,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>50</v>
       </c>
@@ -17306,7 +17303,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>432</v>
       </c>
@@ -17326,7 +17323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -17340,7 +17337,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -17354,7 +17351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>50</v>
       </c>
@@ -17381,21 +17378,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17415,7 +17412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -17435,7 +17432,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -17449,7 +17446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -17463,7 +17460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -17477,7 +17474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -17491,7 +17488,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -17505,7 +17502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -17519,7 +17516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -17539,7 +17536,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -17553,7 +17550,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -17567,7 +17564,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -17587,7 +17584,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -17601,7 +17598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -17615,7 +17612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -17635,7 +17632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -17649,7 +17646,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -17663,7 +17660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>448</v>
       </c>
@@ -17683,7 +17680,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -17697,7 +17694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -17711,7 +17708,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -17731,7 +17728,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -17745,7 +17742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -17759,7 +17756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -17773,7 +17770,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -17787,7 +17784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -17801,7 +17798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -17821,7 +17818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -17835,7 +17832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -17849,7 +17846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -17863,7 +17860,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>50</v>
       </c>
@@ -17877,7 +17874,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -17897,7 +17894,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -17911,7 +17908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -17925,7 +17922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -17939,7 +17936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>465</v>
       </c>
@@ -17959,7 +17956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17973,7 +17970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -17987,7 +17984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -18001,7 +17998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -18015,7 +18012,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>469</v>
       </c>
@@ -18035,7 +18032,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -18046,10 +18043,10 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -18063,7 +18060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -18077,7 +18074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -18097,7 +18094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -18111,7 +18108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -18125,7 +18122,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -18145,7 +18142,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -18165,7 +18162,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>62</v>
       </c>
@@ -18179,7 +18176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>62</v>
       </c>
@@ -18193,7 +18190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -18207,7 +18204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>50</v>
       </c>
@@ -18234,21 +18231,21 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18268,7 +18265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -18288,7 +18285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -18302,7 +18299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -18316,7 +18313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -18330,7 +18327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -18344,7 +18341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -18358,7 +18355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -18372,7 +18369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -18389,7 +18386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>396</v>
       </c>
@@ -18400,9 +18397,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18420,7 +18417,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -18434,7 +18431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -18448,7 +18445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -18462,7 +18459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -18476,7 +18473,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -18496,7 +18493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -18510,7 +18507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -18524,7 +18521,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -18538,7 +18535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18552,7 +18549,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -18572,7 +18569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -18586,7 +18583,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -18600,7 +18597,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -18614,7 +18611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -18628,9 +18625,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -18648,7 +18645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18662,7 +18659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18676,7 +18673,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18696,7 +18693,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -18710,7 +18707,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -18724,7 +18721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -18738,7 +18735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -18758,7 +18755,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>29</v>
       </c>
@@ -18772,7 +18769,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -18786,7 +18783,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -18800,7 +18797,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -18820,7 +18817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -18834,7 +18831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -18854,7 +18851,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18882,21 +18879,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18916,7 +18913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -18936,7 +18933,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -18950,7 +18947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -18964,7 +18961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -18984,7 +18981,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -18998,7 +18995,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -19012,7 +19009,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -19026,7 +19023,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -19040,7 +19037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -19060,7 +19057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -19074,7 +19071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -19088,7 +19085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -19102,7 +19099,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -19116,7 +19113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -19136,7 +19133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -19150,7 +19147,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -19170,7 +19167,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -19184,7 +19181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -19198,7 +19195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>526</v>
       </c>
@@ -19218,7 +19215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -19232,7 +19229,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -19246,7 +19243,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -19260,7 +19257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -19274,7 +19271,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -19294,7 +19291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19308,7 +19305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -19322,7 +19319,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -19336,7 +19333,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -19350,7 +19347,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -19364,7 +19361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -19384,7 +19381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -19398,7 +19395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -19412,7 +19409,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -19432,7 +19429,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -19446,7 +19443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19460,7 +19457,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19474,7 +19471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -19488,7 +19485,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -19502,7 +19499,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -19522,7 +19519,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4875" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BEAEFA-C080-408B-B32C-7DAA6D8B06AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -5249,7 +5249,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5316,7 +5316,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6090,7 +6090,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7022,7 +7022,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8165,7 +8165,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8909,7 +8909,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9934,7 +9934,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10739,7 +10739,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10862,7 +10862,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11278,8 +11278,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11854,7 +11854,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12159,7 +12159,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12674,7 +12674,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12769,7 +12769,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13301,7 +13301,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14177,7 +14177,7 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15339,7 +15339,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16337,8 +16337,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17379,7 +17379,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18232,7 +18232,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18880,7 +18880,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4875" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BEAEFA-C080-408B-B32C-7DAA6D8B06AF}"/>
+  <xr:revisionPtr revIDLastSave="4878" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FE4F89-81D8-4898-8972-5B27ECA99F9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -4858,7 +4858,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4869,7 +4869,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{548B1B85-60FD-4314-9118-8CAF35106C63}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4940,10 +4940,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5248,8 +5244,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5315,8 +5311,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6089,8 +6085,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7021,8 +7017,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8164,8 +8160,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8908,8 +8904,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9933,8 +9929,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10738,8 +10734,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10861,8 +10857,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11278,8 +11274,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11853,8 +11849,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12158,8 +12154,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12673,8 +12669,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12768,8 +12764,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13300,8 +13296,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14176,8 +14172,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15338,8 +15334,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16337,8 +16333,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17378,8 +17374,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18231,8 +18227,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18879,8 +18875,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4878" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FE4F89-81D8-4898-8972-5B27ECA99F9A}"/>
+  <xr:revisionPtr revIDLastSave="4879" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C441F576-EAB7-4DB2-B60A-2674631C1AEA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -4942,6 +4942,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5248,17 +5252,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5278,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -5315,17 +5319,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>721</v>
       </c>
@@ -5495,7 +5499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>548</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5667,7 +5671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>29</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5943,7 +5947,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>280</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -6025,7 +6029,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -6089,17 +6093,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6119,7 +6123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>570</v>
       </c>
@@ -6139,7 +6143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -6201,7 +6205,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -6246,7 +6250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -6412,7 +6416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>721</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -6480,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>50</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6556,7 +6560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>50</v>
       </c>
@@ -6874,7 +6878,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6894,7 +6898,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -6908,7 +6912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -6942,7 +6946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6956,7 +6960,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -6990,7 +6994,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>62</v>
       </c>
@@ -7021,17 +7025,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7051,7 +7055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7071,7 +7075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7099,7 +7103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -7127,7 +7131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -7172,7 +7176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>50</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -7434,7 +7438,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>721</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -7530,7 +7534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -7544,7 +7548,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -7606,7 +7610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -7662,7 +7666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -7738,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7752,7 +7756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>617</v>
       </c>
@@ -7772,7 +7776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -7786,7 +7790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -7814,7 +7818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -7828,7 +7832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>50</v>
       </c>
@@ -7842,7 +7846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -7890,7 +7894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7922,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7932,7 +7936,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>4</v>
       </c>
@@ -8014,7 +8018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -8028,7 +8032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -8056,7 +8060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>62</v>
       </c>
@@ -8104,7 +8108,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>62</v>
       </c>
@@ -8118,7 +8122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -8132,7 +8136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>50</v>
       </c>
@@ -8164,17 +8168,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -8214,7 +8218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -8242,7 +8246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -8284,7 +8288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>722</v>
       </c>
@@ -8304,7 +8308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8318,7 +8322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -8332,7 +8336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -8346,7 +8350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8366,7 +8370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8380,7 +8384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8394,7 +8398,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -8436,7 +8440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -8470,7 +8474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8546,7 +8550,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8560,7 +8564,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -8574,7 +8578,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>50</v>
       </c>
@@ -8588,7 +8592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>721</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8626,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8636,7 +8640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -8698,7 +8702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8726,7 +8730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -8746,7 +8750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -8802,7 +8806,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -8908,17 +8912,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8938,7 +8942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -8958,7 +8962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8972,7 +8976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -9034,7 +9038,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -9048,7 +9052,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9062,7 +9066,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -9082,7 +9086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9096,7 +9100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -9110,7 +9114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -9130,7 +9134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -9164,7 +9168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9192,7 +9196,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -9220,7 +9224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9254,7 +9258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -9282,7 +9286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>721</v>
       </c>
@@ -9316,7 +9320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -9372,7 +9376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9454,7 +9458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9572,7 +9576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9586,7 +9590,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -9606,7 +9610,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9620,7 +9624,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -9668,7 +9672,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -9702,7 +9706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>29</v>
       </c>
@@ -9716,7 +9720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -9764,7 +9768,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -9778,7 +9782,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -9812,7 +9816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -9826,7 +9830,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -9840,7 +9844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -9854,7 +9858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>50</v>
       </c>
@@ -9868,7 +9872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -9888,7 +9892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>62</v>
       </c>
@@ -9902,7 +9906,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>62</v>
       </c>
@@ -9933,17 +9937,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9963,7 +9967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -9983,7 +9987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -9997,7 +10001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -10011,7 +10015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>50</v>
       </c>
@@ -10025,7 +10029,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10045,7 +10049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -10059,7 +10063,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10073,7 +10077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10087,7 +10091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10101,7 +10105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10115,7 +10119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>50</v>
       </c>
@@ -10129,7 +10133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>482</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>89</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>672</v>
       </c>
@@ -10177,7 +10181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10191,7 +10195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -10205,7 +10209,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -10239,7 +10243,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -10253,7 +10257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -10267,7 +10271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -10287,7 +10291,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -10307,7 +10311,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>721</v>
       </c>
@@ -10327,7 +10331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -10341,7 +10345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -10355,7 +10359,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -10369,7 +10373,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -10417,7 +10421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -10431,7 +10435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -10459,7 +10463,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -10479,7 +10483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -10493,7 +10497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10507,7 +10511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10521,7 +10525,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -10541,7 +10545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -10555,7 +10559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10569,7 +10573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -10597,7 +10601,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>62</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>62</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -10710,7 +10714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>100</v>
       </c>
@@ -10738,17 +10742,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10768,7 +10772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10788,7 +10792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -10802,7 +10806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -10816,7 +10820,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10861,17 +10865,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10891,7 +10895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10939,7 +10943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10953,7 +10957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>721</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10987,7 +10991,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -11021,7 +11025,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -11089,7 +11093,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -11103,7 +11107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -11117,7 +11121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11151,7 +11155,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11165,7 +11169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -11185,7 +11189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11199,7 +11203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11213,7 +11217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11227,7 +11231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -11241,7 +11245,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -11278,17 +11282,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11308,7 +11312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11328,7 +11332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -11342,7 +11346,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -11356,7 +11360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -11370,7 +11374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -11384,7 +11388,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -11404,7 +11408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>722</v>
       </c>
@@ -11452,7 +11456,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -11472,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -11492,7 +11496,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>721</v>
       </c>
@@ -11512,7 +11516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11526,7 +11530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -11574,7 +11578,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11588,7 +11592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11602,7 +11606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11630,7 +11634,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11692,7 +11696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11706,7 +11710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -11794,7 +11798,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -11808,7 +11812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11853,17 +11857,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11883,7 +11887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11903,7 +11907,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -11937,7 +11941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -11951,7 +11955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11965,7 +11969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11979,7 +11983,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>708</v>
       </c>
@@ -11999,7 +12003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12013,7 +12017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>710</v>
       </c>
@@ -12033,7 +12037,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12047,7 +12051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -12067,7 +12071,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12087,7 +12091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12121,7 +12125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -12158,17 +12162,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -12208,7 +12212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12222,7 +12226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12242,7 +12246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -12256,7 +12260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -12276,7 +12280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12290,7 +12294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12304,7 +12308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12318,7 +12322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -12332,7 +12336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -12352,7 +12356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12366,7 +12370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12394,7 +12398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -12408,7 +12412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -12428,7 +12432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12456,7 +12460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -12484,7 +12488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -12504,7 +12508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -12524,7 +12528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12538,7 +12542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12552,7 +12556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12566,7 +12570,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -12580,7 +12584,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -12600,7 +12604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12614,7 +12618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -12628,7 +12632,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -12642,7 +12646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -12673,17 +12677,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12703,7 +12707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12723,7 +12727,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12731,7 +12735,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -12768,18 +12772,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -12799,7 +12803,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -12820,7 +12824,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -12841,7 +12845,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -12862,7 +12866,7 @@
         <v>0.65789473684210531</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -12883,7 +12887,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -12905,7 +12909,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -12927,7 +12931,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -12949,7 +12953,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -12971,7 +12975,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -12993,7 +12997,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>0.67441860465116277</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -13056,7 +13060,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -13077,7 +13081,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -13098,7 +13102,7 @@
         <v>0.73469387755102045</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -13119,7 +13123,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -13140,7 +13144,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -13161,7 +13165,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -13203,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -13224,7 +13228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>0.73626373626373631</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -13300,17 +13304,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13330,7 +13334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -13350,7 +13354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>189</v>
       </c>
@@ -13364,7 +13368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13380,7 +13384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13396,7 +13400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -13456,7 +13460,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>716</v>
       </c>
@@ -13476,7 +13480,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>189</v>
       </c>
@@ -13490,7 +13494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13504,7 +13508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -13524,7 +13528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -13538,7 +13542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -13552,7 +13556,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -13566,7 +13570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>50</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13600,7 +13604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -13614,7 +13618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>190</v>
       </c>
@@ -13628,7 +13632,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -13642,7 +13646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -13662,7 +13666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>189</v>
       </c>
@@ -13676,7 +13680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -13690,7 +13694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -13704,7 +13708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13718,7 +13722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -13732,7 +13736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -13746,7 +13750,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -13766,7 +13770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -13780,7 +13784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -13794,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -13808,7 +13812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -13828,7 +13832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -13842,7 +13846,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -13876,7 +13880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -13896,7 +13900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -13910,7 +13914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -13930,7 +13934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -13944,7 +13948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -13978,7 +13982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13992,7 +13996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14006,7 +14010,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14020,7 +14024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>50</v>
       </c>
@@ -14034,7 +14038,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14054,7 +14058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14068,7 +14072,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14082,7 +14086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14096,7 +14100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -14116,7 +14120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -14130,7 +14134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -14144,7 +14148,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -14176,17 +14180,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14206,7 +14210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14226,7 +14230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -14240,7 +14244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -14254,7 +14258,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -14274,7 +14278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14288,7 +14292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -14308,7 +14312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14322,7 +14326,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14336,7 +14340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14350,7 +14354,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -14370,7 +14374,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14384,7 +14388,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14398,7 +14402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -14418,7 +14422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -14432,7 +14436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -14446,7 +14450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -14466,7 +14470,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14480,7 +14484,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14494,7 +14498,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -14514,7 +14518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -14528,7 +14532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -14542,7 +14546,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -14562,7 +14566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -14576,7 +14580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14590,7 +14594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14604,7 +14608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14618,7 +14622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -14638,7 +14642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -14652,7 +14656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -14666,7 +14670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -14680,7 +14684,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -14694,7 +14698,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -14714,7 +14718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -14728,7 +14732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -14742,7 +14746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14756,7 +14760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14784,7 +14788,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -14798,7 +14802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>320</v>
       </c>
@@ -14818,7 +14822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -14832,7 +14836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -14866,7 +14870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14880,7 +14884,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -14900,7 +14904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>29</v>
       </c>
@@ -14934,7 +14938,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -14948,7 +14952,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -14968,7 +14972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -14982,7 +14986,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14996,7 +15000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -15016,7 +15020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -15030,7 +15034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15044,7 +15048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -15058,7 +15062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>50</v>
       </c>
@@ -15072,7 +15076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -15092,7 +15096,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15106,7 +15110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15120,7 +15124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>50</v>
       </c>
@@ -15134,7 +15138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -15154,7 +15158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -15168,7 +15172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -15182,7 +15186,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -15196,7 +15200,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -15216,7 +15220,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -15230,7 +15234,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -15244,7 +15248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -15264,7 +15268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>62</v>
       </c>
@@ -15278,7 +15282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>62</v>
       </c>
@@ -15292,7 +15296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -15306,7 +15310,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>50</v>
       </c>
@@ -15338,17 +15342,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15368,7 +15372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -15388,7 +15392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15402,7 +15406,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15416,7 +15420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15430,7 +15434,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15444,7 +15448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15458,7 +15462,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -15478,7 +15482,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -15492,7 +15496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -15506,7 +15510,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -15520,7 +15524,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -15540,7 +15544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -15554,7 +15558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -15568,7 +15572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -15582,7 +15586,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -15602,7 +15606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -15616,7 +15620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -15630,7 +15634,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -15644,7 +15648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -15658,7 +15662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -15678,7 +15682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15692,7 +15696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15706,7 +15710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -15720,7 +15724,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -15734,7 +15738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -15748,7 +15752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -15768,7 +15772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -15782,7 +15786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -15796,7 +15800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -15816,7 +15820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -15830,7 +15834,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -15844,7 +15848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -15858,7 +15862,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15878,7 +15882,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -15892,7 +15896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15906,7 +15910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -15920,7 +15924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -15934,7 +15938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -15954,7 +15958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15968,7 +15972,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15982,7 +15986,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -15996,7 +16000,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -16030,7 +16034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -16044,7 +16048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16058,7 +16062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16072,7 +16076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16086,7 +16090,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -16100,7 +16104,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>227</v>
       </c>
@@ -16120,7 +16124,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16134,7 +16138,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16148,7 +16152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -16168,7 +16172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -16182,7 +16186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -16196,7 +16200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16210,7 +16214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16224,7 +16228,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -16258,7 +16262,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -16272,7 +16276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -16286,7 +16290,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -16306,7 +16310,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -16337,17 +16341,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16367,7 +16371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -16387,7 +16391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -16415,7 +16419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -16429,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -16443,7 +16447,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -16457,7 +16461,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -16477,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16491,7 +16495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16505,7 +16509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -16525,7 +16529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16539,7 +16543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16553,7 +16557,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -16567,7 +16571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -16587,7 +16591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -16601,7 +16605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -16615,7 +16619,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -16629,7 +16633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -16643,7 +16647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -16657,7 +16661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -16677,7 +16681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16691,7 +16695,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -16705,7 +16709,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -16719,7 +16723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -16733,7 +16737,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -16747,7 +16751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -16767,7 +16771,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -16781,7 +16785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -16795,7 +16799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -16809,7 +16813,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -16829,7 +16833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -16843,7 +16847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -16857,7 +16861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -16871,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -16891,7 +16895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -16905,7 +16909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16919,7 +16923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16933,7 +16937,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16947,7 +16951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -16961,7 +16965,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -16981,7 +16985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -16995,7 +16999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -17009,7 +17013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -17023,7 +17027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>50</v>
       </c>
@@ -17037,7 +17041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -17071,7 +17075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -17085,7 +17089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -17099,7 +17103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -17119,7 +17123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -17133,7 +17137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17147,7 +17151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17161,7 +17165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -17175,7 +17179,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17189,7 +17193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>50</v>
       </c>
@@ -17203,7 +17207,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -17223,7 +17227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -17237,7 +17241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -17257,7 +17261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17271,7 +17275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17285,7 +17289,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>50</v>
       </c>
@@ -17299,7 +17303,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>432</v>
       </c>
@@ -17319,7 +17323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -17333,7 +17337,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -17347,7 +17351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>50</v>
       </c>
@@ -17378,17 +17382,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17408,7 +17412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -17428,7 +17432,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -17442,7 +17446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -17456,7 +17460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -17470,7 +17474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -17484,7 +17488,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -17498,7 +17502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -17512,7 +17516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -17532,7 +17536,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -17546,7 +17550,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -17560,7 +17564,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -17580,7 +17584,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -17594,7 +17598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -17608,7 +17612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -17628,7 +17632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -17642,7 +17646,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -17656,7 +17660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>448</v>
       </c>
@@ -17676,7 +17680,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -17690,7 +17694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -17704,7 +17708,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -17724,7 +17728,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -17738,7 +17742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -17752,7 +17756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -17766,7 +17770,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -17780,7 +17784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -17794,7 +17798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -17814,7 +17818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -17828,7 +17832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -17842,7 +17846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -17856,7 +17860,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>50</v>
       </c>
@@ -17870,7 +17874,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -17890,7 +17894,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -17904,7 +17908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -17918,7 +17922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -17932,7 +17936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>465</v>
       </c>
@@ -17952,7 +17956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17966,7 +17970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -17980,7 +17984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -17994,7 +17998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -18008,7 +18012,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>469</v>
       </c>
@@ -18028,7 +18032,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -18042,7 +18046,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -18056,7 +18060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -18070,7 +18074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -18090,7 +18094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -18104,7 +18108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -18118,7 +18122,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -18138,7 +18142,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -18158,7 +18162,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>62</v>
       </c>
@@ -18172,7 +18176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>62</v>
       </c>
@@ -18186,7 +18190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -18200,7 +18204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>50</v>
       </c>
@@ -18231,17 +18235,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18261,7 +18265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -18281,7 +18285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -18295,7 +18299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -18309,7 +18313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -18323,7 +18327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -18337,7 +18341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -18351,7 +18355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -18365,7 +18369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -18382,7 +18386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>396</v>
       </c>
@@ -18393,7 +18397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -18413,7 +18417,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -18427,7 +18431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -18441,7 +18445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -18455,7 +18459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -18469,7 +18473,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -18489,7 +18493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -18503,7 +18507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -18517,7 +18521,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -18531,7 +18535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18545,7 +18549,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -18565,7 +18569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -18579,7 +18583,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -18593,7 +18597,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -18607,7 +18611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -18621,7 +18625,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -18641,7 +18645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18655,7 +18659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18669,7 +18673,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18689,7 +18693,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -18703,7 +18707,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -18717,7 +18721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -18731,7 +18735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -18751,7 +18755,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>29</v>
       </c>
@@ -18765,7 +18769,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -18779,7 +18783,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -18793,7 +18797,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -18813,7 +18817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -18827,7 +18831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -18847,7 +18851,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18879,17 +18883,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18909,7 +18913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -18929,7 +18933,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -18943,7 +18947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -18957,7 +18961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -18977,7 +18981,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -18991,7 +18995,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -19005,7 +19009,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -19019,7 +19023,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -19033,7 +19037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -19053,7 +19057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -19067,7 +19071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -19081,7 +19085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -19095,7 +19099,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -19109,7 +19113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -19129,7 +19133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -19143,7 +19147,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -19163,7 +19167,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -19177,7 +19181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -19191,7 +19195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>526</v>
       </c>
@@ -19211,7 +19215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -19225,7 +19229,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -19239,7 +19243,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -19253,7 +19257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -19267,7 +19271,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -19287,7 +19291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19301,7 +19305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -19329,7 +19333,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -19343,7 +19347,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -19357,7 +19361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -19377,7 +19381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -19391,7 +19395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -19405,7 +19409,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -19425,7 +19429,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -19439,7 +19443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19453,7 +19457,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19467,7 +19471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -19481,7 +19485,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -19495,7 +19499,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -19515,7 +19519,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4879" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C441F576-EAB7-4DB2-B60A-2674631C1AEA}"/>
+  <xr:revisionPtr revIDLastSave="4880" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F56B92-6D1D-48F7-8D9A-9D4B080304A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -5252,17 +5252,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -5319,17 +5319,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>721</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>548</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>29</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>280</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -6093,17 +6093,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>570</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>721</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>50</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>50</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>62</v>
       </c>
@@ -7025,17 +7025,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>50</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>721</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>617</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>50</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>4</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>62</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>62</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>50</v>
       </c>
@@ -8168,17 +8168,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>722</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>50</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>721</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -8912,17 +8912,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>721</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>29</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>50</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>62</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>62</v>
       </c>
@@ -9937,17 +9937,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>50</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>50</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>482</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>89</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>672</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>721</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>62</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>62</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>100</v>
       </c>
@@ -10742,17 +10742,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10865,17 +10865,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>721</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -11282,17 +11282,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>722</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>721</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11857,17 +11857,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>708</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>710</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -12162,17 +12162,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -12677,17 +12677,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12735,7 +12735,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -12772,18 +12772,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>0.65789473684210531</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -12997,7 +12997,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>0.67441860465116277</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>0.73469387755102045</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>0.73626373626373631</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -13304,17 +13304,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>189</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13384,7 +13384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13400,7 +13400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>716</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>189</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>50</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>190</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>189</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>50</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -14180,17 +14180,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>320</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>29</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>50</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>50</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>62</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>62</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>50</v>
       </c>
@@ -15342,17 +15342,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>227</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -16341,17 +16341,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>50</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>50</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>50</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>432</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>50</v>
       </c>
@@ -17382,17 +17382,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>448</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>50</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>465</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>469</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>62</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>62</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>50</v>
       </c>
@@ -18235,17 +18235,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>396</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>29</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18883,17 +18883,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>526</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4880" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F56B92-6D1D-48F7-8D9A-9D4B080304A0}"/>
+  <xr:revisionPtr revIDLastSave="4881" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67EE91CB-D43A-40A1-9457-01E6EDBFBAAA}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -4942,10 +4942,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5252,17 +5248,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5282,7 +5278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -5319,17 +5315,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5349,7 +5345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5369,7 +5365,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -5389,7 +5385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -5417,7 +5413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -5445,7 +5441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5465,7 +5461,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +5475,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>721</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>548</v>
       </c>
@@ -5519,7 +5515,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -5533,7 +5529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -5547,7 +5543,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -5575,7 +5571,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5595,7 +5591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5623,7 +5619,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -5643,7 +5639,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -5657,7 +5653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5671,7 +5667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>29</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -5761,7 +5757,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5781,7 +5777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5795,7 +5791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5823,7 +5819,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -5857,7 +5853,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5885,7 +5881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5899,7 +5895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5913,7 +5909,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5947,7 +5943,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -5961,7 +5957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -5989,7 +5985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>280</v>
       </c>
@@ -6009,7 +6005,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -6029,7 +6025,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -6093,17 +6089,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6123,7 +6119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>570</v>
       </c>
@@ -6143,7 +6139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6171,7 +6167,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -6191,7 +6187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -6205,7 +6201,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6219,7 +6215,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6233,7 +6229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -6250,7 +6246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -6270,7 +6266,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6284,7 +6280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -6298,7 +6294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -6312,7 +6308,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -6326,7 +6322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6346,7 +6342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6374,7 +6370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6388,7 +6384,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6398,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -6416,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>721</v>
       </c>
@@ -6436,7 +6432,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6464,7 +6460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -6484,7 +6480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -6498,7 +6494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -6512,7 +6508,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6526,7 +6522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>50</v>
       </c>
@@ -6540,7 +6536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6560,7 +6556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6574,7 +6570,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -6588,7 +6584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -6616,7 +6612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -6630,7 +6626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6650,7 +6646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -6664,7 +6660,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6678,7 +6674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6768,7 +6764,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -6788,7 +6784,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -6802,7 +6798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -6822,7 +6818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -6836,7 +6832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -6850,7 +6846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6864,7 +6860,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>50</v>
       </c>
@@ -6878,7 +6874,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -6912,7 +6908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6926,7 +6922,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -6946,7 +6942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6960,7 +6956,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6974,7 +6970,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -6994,7 +6990,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>62</v>
       </c>
@@ -7025,17 +7021,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7055,7 +7051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7075,7 +7071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7089,7 +7085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7103,7 +7099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -7117,7 +7113,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -7131,7 +7127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -7145,7 +7141,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -7159,7 +7155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -7176,7 +7172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -7196,7 +7192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -7230,7 +7226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7258,7 +7254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7272,7 +7268,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7286,7 +7282,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>50</v>
       </c>
@@ -7300,7 +7296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7320,7 +7316,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -7334,7 +7330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7362,7 +7358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7376,7 +7372,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -7390,7 +7386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -7410,7 +7406,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -7424,7 +7420,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -7438,7 +7434,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -7452,7 +7448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>721</v>
       </c>
@@ -7472,7 +7468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7486,7 +7482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7500,7 +7496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -7534,7 +7530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -7548,7 +7544,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -7562,7 +7558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -7576,7 +7572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -7590,7 +7586,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -7610,7 +7606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -7624,7 +7620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -7638,7 +7634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -7652,7 +7648,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -7680,7 +7676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -7694,7 +7690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -7714,7 +7710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -7728,7 +7724,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -7742,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7756,7 +7752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>617</v>
       </c>
@@ -7776,7 +7772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -7790,7 +7786,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -7804,7 +7800,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -7818,7 +7814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -7832,7 +7828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>50</v>
       </c>
@@ -7846,7 +7842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -7866,7 +7862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -7880,7 +7876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -7894,7 +7890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7908,7 +7904,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7936,7 +7932,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -7956,7 +7952,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7970,7 +7966,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +7980,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -8004,7 +8000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>4</v>
       </c>
@@ -8018,7 +8014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -8046,7 +8042,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -8060,7 +8056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -8094,7 +8090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>62</v>
       </c>
@@ -8108,7 +8104,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>62</v>
       </c>
@@ -8122,7 +8118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>50</v>
       </c>
@@ -8168,17 +8164,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8198,7 +8194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -8218,7 +8214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -8232,7 +8228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -8246,7 +8242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -8260,7 +8256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -8274,7 +8270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -8288,7 +8284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>722</v>
       </c>
@@ -8308,7 +8304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8322,7 +8318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -8336,7 +8332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -8350,7 +8346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8370,7 +8366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8384,7 +8380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8398,7 +8394,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -8412,7 +8408,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -8426,7 +8422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -8440,7 +8436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -8460,7 +8456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -8474,7 +8470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -8488,7 +8484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -8502,7 +8498,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8516,7 +8512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -8530,7 +8526,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8550,7 +8546,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8564,7 +8560,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -8578,7 +8574,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>50</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>721</v>
       </c>
@@ -8612,7 +8608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8622,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8716,7 +8712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -8730,7 +8726,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -8750,7 +8746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -8806,7 +8802,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -8820,7 +8816,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -8834,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -8854,7 +8850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8868,7 +8864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -8912,17 +8908,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -8962,7 +8958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8976,7 +8972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8990,7 +8986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9004,7 +9000,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -9024,7 +9020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -9052,7 +9048,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9066,7 +9062,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -9086,7 +9082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9100,7 +9096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -9134,7 +9130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9148,7 +9144,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -9168,7 +9164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9182,7 +9178,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9196,7 +9192,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -9210,7 +9206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -9224,7 +9220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -9244,7 +9240,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -9258,7 +9254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -9272,7 +9268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +9282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -9300,7 +9296,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>721</v>
       </c>
@@ -9320,7 +9316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -9334,7 +9330,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -9348,7 +9344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -9376,7 +9372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -9390,7 +9386,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -9410,7 +9406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9424,7 +9420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -9444,7 +9440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9472,7 +9468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9486,7 +9482,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9500,7 +9496,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -9548,7 +9544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9562,7 +9558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9576,7 +9572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9590,7 +9586,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -9610,7 +9606,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9624,7 +9620,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -9644,7 +9640,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -9672,7 +9668,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9686,7 +9682,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -9706,7 +9702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>29</v>
       </c>
@@ -9720,7 +9716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9748,7 +9744,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -9768,7 +9764,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -9782,7 +9778,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -9816,7 +9812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -9830,7 +9826,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -9844,7 +9840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -9858,7 +9854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>50</v>
       </c>
@@ -9872,7 +9868,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -9892,7 +9888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>62</v>
       </c>
@@ -9906,7 +9902,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>62</v>
       </c>
@@ -9937,17 +9933,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9967,7 +9963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -9987,7 +9983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -10001,7 +9997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -10015,7 +10011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>50</v>
       </c>
@@ -10029,7 +10025,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10049,7 +10045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -10063,7 +10059,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10077,7 +10073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10091,7 +10087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10105,7 +10101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>50</v>
       </c>
@@ -10133,7 +10129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>482</v>
       </c>
@@ -10150,7 +10146,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>89</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>672</v>
       </c>
@@ -10181,7 +10177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10195,7 +10191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -10209,7 +10205,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -10223,7 +10219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -10243,7 +10239,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -10257,7 +10253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -10271,7 +10267,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -10291,7 +10287,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -10311,7 +10307,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>721</v>
       </c>
@@ -10331,7 +10327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -10345,7 +10341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -10359,7 +10355,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -10373,7 +10369,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -10387,7 +10383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -10421,7 +10417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -10435,7 +10431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -10449,7 +10445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -10463,7 +10459,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -10483,7 +10479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -10497,7 +10493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -10511,7 +10507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10525,7 +10521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -10545,7 +10541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -10559,7 +10555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10573,7 +10569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10587,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -10635,7 +10631,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -10655,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>62</v>
       </c>
@@ -10669,7 +10665,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>62</v>
       </c>
@@ -10683,7 +10679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -10697,7 +10693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -10714,7 +10710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>100</v>
       </c>
@@ -10742,17 +10738,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10792,7 +10788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -10806,7 +10802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -10820,7 +10816,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10865,17 +10861,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -10895,7 +10891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -10915,7 +10911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10929,7 +10925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10943,7 +10939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10957,7 +10953,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>721</v>
       </c>
@@ -10977,7 +10973,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10991,7 +10987,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -11011,7 +11007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -11025,7 +11021,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11045,7 +11041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -11059,7 +11055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -11079,7 +11075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -11093,7 +11089,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -11107,7 +11103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -11141,7 +11137,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11155,7 +11151,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11169,7 +11165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -11189,7 +11185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11203,7 +11199,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -11217,7 +11213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11231,7 +11227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -11245,7 +11241,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -11282,17 +11278,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11312,7 +11308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11332,7 +11328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -11346,7 +11342,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -11360,7 +11356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -11374,7 +11370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -11388,7 +11384,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -11408,7 +11404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -11422,7 +11418,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -11436,7 +11432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>722</v>
       </c>
@@ -11456,7 +11452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -11476,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -11496,7 +11492,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>721</v>
       </c>
@@ -11516,7 +11512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11530,7 +11526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11544,7 +11540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11558,7 +11554,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -11578,7 +11574,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11592,7 +11588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11606,7 +11602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11620,7 +11616,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11634,7 +11630,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11654,7 +11650,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -11668,7 +11664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11682,7 +11678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11696,7 +11692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11710,7 +11706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -11730,7 +11726,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -11750,7 +11746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11764,7 +11760,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -11778,7 +11774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -11798,7 +11794,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -11812,7 +11808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11857,17 +11853,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11887,7 +11883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -11907,7 +11903,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -11921,7 +11917,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -11941,7 +11937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -11955,7 +11951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11969,7 +11965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11983,7 +11979,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>708</v>
       </c>
@@ -12003,7 +11999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12017,7 +12013,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>710</v>
       </c>
@@ -12037,7 +12033,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12051,7 +12047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -12071,7 +12067,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12091,7 +12087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -12111,7 +12107,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12125,7 +12121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -12162,17 +12158,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12192,7 +12188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -12212,7 +12208,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12226,7 +12222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12246,7 +12242,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -12260,7 +12256,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -12280,7 +12276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12294,7 +12290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12308,7 +12304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12322,7 +12318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -12336,7 +12332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -12356,7 +12352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12370,7 +12366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12384,7 +12380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12398,7 +12394,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -12412,7 +12408,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -12432,7 +12428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12446,7 +12442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12460,7 +12456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12474,7 +12470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -12488,7 +12484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -12508,7 +12504,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -12528,7 +12524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12542,7 +12538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12556,7 +12552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12570,7 +12566,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -12584,7 +12580,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -12604,7 +12600,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12618,7 +12614,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -12632,7 +12628,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -12646,7 +12642,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -12677,17 +12673,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12707,7 +12703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12727,7 +12723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12735,7 +12731,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -12772,18 +12768,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -12803,7 +12799,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -12824,7 +12820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -12845,7 +12841,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -12866,7 +12862,7 @@
         <v>0.65789473684210531</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -12887,7 +12883,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -12909,7 +12905,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -12931,7 +12927,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -12953,7 +12949,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -12975,7 +12971,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -12997,7 +12993,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -13018,7 +13014,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -13039,7 +13035,7 @@
         <v>0.67441860465116277</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -13060,7 +13056,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -13081,7 +13077,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -13102,7 +13098,7 @@
         <v>0.73469387755102045</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -13123,7 +13119,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -13144,7 +13140,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -13165,7 +13161,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -13186,7 +13182,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -13207,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -13228,7 +13224,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -13253,7 +13249,7 @@
         <v>0.73626373626373631</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -13304,17 +13300,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13334,7 +13330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -13354,7 +13350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>189</v>
       </c>
@@ -13368,7 +13364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13384,7 +13380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13400,7 +13396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -13420,7 +13416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -13440,7 +13436,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -13460,7 +13456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>716</v>
       </c>
@@ -13480,7 +13476,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>189</v>
       </c>
@@ -13494,7 +13490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13508,7 +13504,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -13528,7 +13524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -13542,7 +13538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -13556,7 +13552,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -13570,7 +13566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>50</v>
       </c>
@@ -13584,7 +13580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13604,7 +13600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -13618,7 +13614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>190</v>
       </c>
@@ -13632,7 +13628,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -13646,7 +13642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -13666,7 +13662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>189</v>
       </c>
@@ -13680,7 +13676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -13694,7 +13690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -13708,7 +13704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13722,7 +13718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -13736,7 +13732,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -13750,7 +13746,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -13770,7 +13766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -13784,7 +13780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -13798,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -13812,7 +13808,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -13832,7 +13828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -13846,7 +13842,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -13860,7 +13856,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -13880,7 +13876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -13900,7 +13896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -13914,7 +13910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -13934,7 +13930,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -13948,7 +13944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -13962,7 +13958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -13982,7 +13978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13996,7 +13992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14010,7 +14006,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14024,7 +14020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>50</v>
       </c>
@@ -14038,7 +14034,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14058,7 +14054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14072,7 +14068,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14086,7 +14082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14100,7 +14096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -14120,7 +14116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -14134,7 +14130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -14148,7 +14144,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -14180,17 +14176,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -14210,7 +14206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14230,7 +14226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -14244,7 +14240,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -14258,7 +14254,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -14278,7 +14274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14292,7 +14288,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -14312,7 +14308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14326,7 +14322,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14340,7 +14336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14354,7 +14350,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -14374,7 +14370,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14388,7 +14384,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14402,7 +14398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -14422,7 +14418,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -14436,7 +14432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -14450,7 +14446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -14470,7 +14466,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14484,7 +14480,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14498,7 +14494,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -14518,7 +14514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -14532,7 +14528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -14546,7 +14542,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -14566,7 +14562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -14580,7 +14576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14594,7 +14590,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14608,7 +14604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14622,7 +14618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -14642,7 +14638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -14656,7 +14652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -14670,7 +14666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -14684,7 +14680,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -14698,7 +14694,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -14718,7 +14714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -14732,7 +14728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -14746,7 +14742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14760,7 +14756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14774,7 +14770,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14788,7 +14784,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -14802,7 +14798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>320</v>
       </c>
@@ -14822,7 +14818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -14836,7 +14832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -14850,7 +14846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -14870,7 +14866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14884,7 +14880,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -14904,7 +14900,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>29</v>
       </c>
@@ -14938,7 +14934,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -14952,7 +14948,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -14972,7 +14968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -14986,7 +14982,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -15000,7 +14996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -15020,7 +15016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -15034,7 +15030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15048,7 +15044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -15062,7 +15058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>50</v>
       </c>
@@ -15076,7 +15072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -15096,7 +15092,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15110,7 +15106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15124,7 +15120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>50</v>
       </c>
@@ -15138,7 +15134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -15158,7 +15154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -15172,7 +15168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -15186,7 +15182,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -15200,7 +15196,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -15220,7 +15216,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -15234,7 +15230,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -15248,7 +15244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -15268,7 +15264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>62</v>
       </c>
@@ -15282,7 +15278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>62</v>
       </c>
@@ -15296,7 +15292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -15310,7 +15306,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>50</v>
       </c>
@@ -15342,17 +15338,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15372,7 +15368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -15392,7 +15388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15406,7 +15402,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15420,7 +15416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15434,7 +15430,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15448,7 +15444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15462,7 +15458,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -15482,7 +15478,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -15496,7 +15492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -15510,7 +15506,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -15524,7 +15520,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -15544,7 +15540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -15558,7 +15554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -15572,7 +15568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -15586,7 +15582,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -15606,7 +15602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -15620,7 +15616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -15634,7 +15630,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -15648,7 +15644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -15662,7 +15658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -15682,7 +15678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15696,7 +15692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15710,7 +15706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -15724,7 +15720,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -15738,7 +15734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -15752,7 +15748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -15772,7 +15768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -15786,7 +15782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -15800,7 +15796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -15820,7 +15816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -15834,7 +15830,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -15848,7 +15844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -15862,7 +15858,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15882,7 +15878,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -15896,7 +15892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15910,7 +15906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -15924,7 +15920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -15938,7 +15934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -15958,7 +15954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15972,7 +15968,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15986,7 +15982,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -16000,7 +15996,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -16014,7 +16010,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -16034,7 +16030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>29</v>
       </c>
@@ -16048,7 +16044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16062,7 +16058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16076,7 +16072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16090,7 +16086,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -16104,7 +16100,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>227</v>
       </c>
@@ -16124,7 +16120,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -16138,7 +16134,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -16152,7 +16148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -16172,7 +16168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -16186,7 +16182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -16200,7 +16196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16214,7 +16210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16228,7 +16224,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16242,7 +16238,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -16262,7 +16258,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -16276,7 +16272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -16290,7 +16286,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -16310,7 +16306,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -16341,17 +16337,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -16371,7 +16367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -16391,7 +16387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -16405,7 +16401,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -16419,7 +16415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -16433,7 +16429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -16447,7 +16443,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -16461,7 +16457,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -16481,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16495,7 +16491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16509,7 +16505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -16529,7 +16525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16543,7 +16539,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16557,7 +16553,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -16571,7 +16567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -16591,7 +16587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -16605,7 +16601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -16619,7 +16615,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -16633,7 +16629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -16647,7 +16643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -16661,7 +16657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -16681,7 +16677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16695,7 +16691,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -16709,7 +16705,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -16723,7 +16719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -16737,7 +16733,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -16751,7 +16747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -16771,7 +16767,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -16785,7 +16781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -16799,7 +16795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -16813,7 +16809,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -16833,7 +16829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -16847,7 +16843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -16861,7 +16857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -16875,7 +16871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -16895,7 +16891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -16909,7 +16905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16923,7 +16919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16937,7 +16933,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -16951,7 +16947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -16965,7 +16961,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -16985,7 +16981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -16999,7 +16995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -17013,7 +17009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -17027,7 +17023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>50</v>
       </c>
@@ -17041,7 +17037,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -17061,7 +17057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -17075,7 +17071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -17089,7 +17085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -17103,7 +17099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -17123,7 +17119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -17137,7 +17133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17151,7 +17147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17165,7 +17161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -17179,7 +17175,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17193,7 +17189,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>50</v>
       </c>
@@ -17207,7 +17203,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -17227,7 +17223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -17241,7 +17237,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -17261,7 +17257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17275,7 +17271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17289,7 +17285,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>50</v>
       </c>
@@ -17303,7 +17299,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>432</v>
       </c>
@@ -17323,7 +17319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -17337,7 +17333,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -17351,7 +17347,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>50</v>
       </c>
@@ -17382,17 +17378,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17412,7 +17408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -17432,7 +17428,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -17446,7 +17442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -17460,7 +17456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -17474,7 +17470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -17488,7 +17484,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -17502,7 +17498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -17516,7 +17512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -17536,7 +17532,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -17550,7 +17546,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -17564,7 +17560,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -17584,7 +17580,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -17598,7 +17594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -17612,7 +17608,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -17632,7 +17628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -17646,7 +17642,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -17660,7 +17656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>448</v>
       </c>
@@ -17680,7 +17676,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -17694,7 +17690,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -17708,7 +17704,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -17728,7 +17724,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -17742,7 +17738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -17756,7 +17752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -17770,7 +17766,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -17784,7 +17780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -17798,7 +17794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -17818,7 +17814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -17832,7 +17828,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -17846,7 +17842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -17860,7 +17856,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>50</v>
       </c>
@@ -17874,7 +17870,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -17894,7 +17890,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -17908,7 +17904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -17922,7 +17918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -17936,7 +17932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>465</v>
       </c>
@@ -17956,7 +17952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -17970,7 +17966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -17984,7 +17980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -17998,7 +17994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -18012,7 +18008,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>469</v>
       </c>
@@ -18032,7 +18028,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -18046,7 +18042,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -18060,7 +18056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -18074,7 +18070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -18094,7 +18090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -18108,7 +18104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -18122,7 +18118,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -18142,7 +18138,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -18162,7 +18158,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>62</v>
       </c>
@@ -18176,7 +18172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>62</v>
       </c>
@@ -18190,7 +18186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -18204,7 +18200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>50</v>
       </c>
@@ -18235,17 +18231,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18265,7 +18261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -18285,7 +18281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -18299,7 +18295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -18313,7 +18309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -18327,7 +18323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -18341,7 +18337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -18355,7 +18351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -18369,7 +18365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -18386,7 +18382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>396</v>
       </c>
@@ -18397,7 +18393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -18417,7 +18413,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -18431,7 +18427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -18445,7 +18441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -18459,7 +18455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -18473,7 +18469,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -18493,7 +18489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -18507,7 +18503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -18521,7 +18517,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -18535,7 +18531,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18549,7 +18545,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -18569,7 +18565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -18583,7 +18579,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -18597,7 +18593,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -18611,7 +18607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -18625,7 +18621,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -18645,7 +18641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18659,7 +18655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18673,7 +18669,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18693,7 +18689,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -18707,7 +18703,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -18721,7 +18717,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -18735,7 +18731,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -18755,7 +18751,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>29</v>
       </c>
@@ -18769,7 +18765,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -18783,7 +18779,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -18797,7 +18793,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -18817,7 +18813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -18831,7 +18827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -18851,7 +18847,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18883,17 +18879,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18913,7 +18909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -18933,7 +18929,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -18947,7 +18943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -18961,7 +18957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -18981,7 +18977,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -18995,7 +18991,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -19009,7 +19005,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -19023,7 +19019,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -19037,7 +19033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -19057,7 +19053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -19071,7 +19067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -19085,7 +19081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -19099,7 +19095,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -19113,7 +19109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -19133,7 +19129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -19147,7 +19143,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -19167,7 +19163,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -19181,7 +19177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -19195,7 +19191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>526</v>
       </c>
@@ -19215,7 +19211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -19229,7 +19225,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -19243,7 +19239,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -19257,7 +19253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -19271,7 +19267,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -19291,7 +19287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19305,7 +19301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -19319,7 +19315,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -19333,7 +19329,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -19347,7 +19343,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -19361,7 +19357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -19381,7 +19377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -19395,7 +19391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -19409,7 +19405,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -19429,7 +19425,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -19443,7 +19439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19457,7 +19453,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19471,7 +19467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -19485,7 +19481,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -19499,7 +19495,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -19519,7 +19515,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4881" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67EE91CB-D43A-40A1-9457-01E6EDBFBAAA}"/>
+  <xr:revisionPtr revIDLastSave="4890" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{550D8053-C340-491E-8A44-7A05316493D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="14865" yWindow="345" windowWidth="18585" windowHeight="17820" firstSheet="9" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="722">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2182,9 +2182,6 @@
   </si>
   <si>
     <t>ST. PETERSBURG LADIES TROPHY</t>
-  </si>
-  <si>
-    <t>Dash Saville (AUSTRALIA)</t>
   </si>
   <si>
     <t>MALLORCA OPEN</t>
@@ -4858,7 +4855,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4869,7 +4866,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{548B1B85-60FD-4314-9118-8CAF35106C63}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4880,7 +4877,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4940,6 +4937,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5244,8 +5245,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5311,8 +5312,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,7 +5478,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -6085,8 +6086,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6414,7 +6415,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -7017,8 +7018,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7450,7 +7451,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -8160,8 +8161,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,7 +8287,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8590,7 +8591,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -8904,8 +8905,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9298,7 +9299,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -9929,8 +9930,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10056,7 +10057,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10309,7 +10310,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -10628,7 +10629,7 @@
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10734,8 +10735,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10857,8 +10858,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10955,7 +10956,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -11274,8 +11275,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11434,7 +11435,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11494,7 +11495,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -11850,7 +11851,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11990,7 +11991,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -12015,7 +12016,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -12024,13 +12025,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12058,13 +12059,13 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12078,7 +12079,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -12154,8 +12155,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12669,8 +12670,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12764,8 +12765,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13296,8 +13297,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13458,7 +13459,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -14155,7 +14156,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -14172,8 +14173,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15334,8 +15335,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16333,8 +16334,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17374,8 +17375,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18039,7 +18040,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -18227,8 +18228,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18395,7 +18396,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18623,7 +18624,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -18875,8 +18876,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4890" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{550D8053-C340-491E-8A44-7A05316493D4}"/>
+  <xr:revisionPtr revIDLastSave="4892" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FF9466E-0183-4F5B-AAFE-CA8E300E24D4}"/>
   <bookViews>
-    <workbookView xWindow="14865" yWindow="345" windowWidth="18585" windowHeight="17820" firstSheet="9" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -4855,7 +4855,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4939,14 +4939,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4984,7 +4980,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5090,7 +5086,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5232,7 +5228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5246,7 +5242,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,7 +5309,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6087,7 +6083,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7019,7 +7015,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8162,7 +8158,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8906,7 +8902,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9931,7 +9927,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10736,7 +10732,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10859,7 +10855,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11276,7 +11272,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11850,8 +11846,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12156,7 +12152,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12671,7 +12667,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12766,7 +12762,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13298,7 +13294,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14174,7 +14170,7 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15336,7 +15332,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16335,7 +16331,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17376,7 +17372,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18229,7 +18225,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18877,7 +18873,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4892" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FF9466E-0183-4F5B-AAFE-CA8E300E24D4}"/>
+  <xr:revisionPtr revIDLastSave="4895" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C795C010-BEC6-4E65-ADCB-0A0147841E53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -1134,9 +1134,6 @@
     <t>6-1 3-6 7-6(5)</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>4-6 6-1 6-4</t>
   </si>
   <si>
@@ -1278,9 +1275,6 @@
     <t>Lisa Raymond (USA)</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Lindsay Davenport (USA)</t>
   </si>
   <si>
@@ -2221,6 +2215,12 @@
   </si>
   <si>
     <t>QATAR LADIES OPEN</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -4866,7 +4866,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{548B1B85-60FD-4314-9118-8CAF35106C63}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5241,7 +5241,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5308,7 +5308,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5353,13 +5353,13 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,7 +5387,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -5401,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -5429,7 +5429,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -5449,13 +5449,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5463,18 +5463,18 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -5503,13 +5503,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5517,7 +5517,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -5531,13 +5531,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -5559,7 +5559,7 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -5579,7 +5579,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -5593,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -5607,13 +5607,13 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -5641,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -5655,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -5669,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5703,13 +5703,13 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,13 +5717,13 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5731,13 +5731,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5751,7 +5751,7 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,7 +5765,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -5779,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -5841,7 +5841,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -5855,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -5883,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -5897,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>560</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
         <v>562</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5931,13 +5931,13 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,7 +5945,7 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -5959,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -5993,13 +5993,13 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6013,13 +6013,13 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6027,13 +6027,13 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6082,7 +6082,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -6127,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -6155,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -6175,7 +6175,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -6189,13 +6189,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6203,7 +6203,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -6217,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -6228,13 +6228,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -6254,13 +6254,13 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -6296,13 +6296,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6330,7 +6330,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -6344,7 +6344,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -6372,13 +6372,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6386,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,7 +6411,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -6420,13 +6420,13 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6440,7 +6440,7 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6448,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -6482,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -6502,7 +6502,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,13 +6558,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -6592,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -6634,7 +6634,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -6648,13 +6648,13 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -6690,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -6744,7 +6744,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,13 +6772,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
@@ -6820,7 +6820,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
@@ -6848,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6868,7 +6868,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6882,13 +6882,13 @@
         <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -6916,7 +6916,7 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6930,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -6944,13 +6944,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6964,7 +6964,7 @@
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6984,7 +6984,7 @@
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6998,7 +6998,7 @@
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -7014,7 +7014,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7059,7 +7059,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -7073,7 +7073,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -7101,13 +7101,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7135,7 +7135,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7154,7 +7154,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -7180,7 +7180,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -7214,7 +7214,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -7242,7 +7242,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -7256,13 +7256,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7304,13 +7304,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7394,13 +7394,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7414,7 +7414,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,7 +7447,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -7456,7 +7456,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -7538,7 +7538,7 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7580,7 +7580,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7594,7 +7594,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -7608,7 +7608,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -7622,7 +7622,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -7642,7 +7642,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7650,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -7712,13 +7712,13 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -7740,7 +7740,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
@@ -7760,7 +7760,7 @@
         <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
@@ -7774,7 +7774,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
@@ -7788,13 +7788,13 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -7878,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -7892,13 +7892,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7906,13 +7906,13 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7926,7 +7926,7 @@
         <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7940,13 +7940,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -7960,7 +7960,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7974,7 +7974,7 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>20</v>
@@ -8036,7 +8036,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8157,7 +8157,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8202,7 +8202,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -8216,7 +8216,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -8244,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8292,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -8354,7 +8354,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -8368,7 +8368,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -8382,13 +8382,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8402,7 +8402,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -8458,7 +8458,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -8520,7 +8520,7 @@
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8554,7 +8554,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8568,7 +8568,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8587,7 +8587,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -8596,7 +8596,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -8616,7 +8616,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8624,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -8638,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -8686,7 +8686,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -8734,7 +8734,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -8762,13 +8762,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8810,7 +8810,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8838,7 +8838,7 @@
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
@@ -8852,7 +8852,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
@@ -8878,7 +8878,7 @@
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -8901,7 +8901,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8946,7 +8946,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -8960,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
@@ -8974,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -9008,7 +9008,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -9022,13 +9022,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9036,13 +9036,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9050,18 +9050,18 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -9084,7 +9084,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -9118,7 +9118,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -9132,13 +9132,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -9172,7 +9172,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9180,13 +9180,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9234,7 +9234,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9242,7 +9242,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -9290,12 +9290,12 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -9324,7 +9324,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9380,7 +9380,7 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -9428,7 +9428,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -9442,7 +9442,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -9456,7 +9456,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -9476,7 +9476,7 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9484,13 +9484,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9504,7 +9504,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9518,7 +9518,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9532,7 +9532,7 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -9546,7 +9546,7 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -9560,7 +9560,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -9580,7 +9580,7 @@
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9594,13 +9594,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9608,13 +9608,13 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9634,7 +9634,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9642,13 +9642,13 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9662,7 +9662,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9676,7 +9676,7 @@
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9690,7 +9690,7 @@
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -9704,7 +9704,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -9738,7 +9738,7 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9752,13 +9752,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9766,13 +9766,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9786,7 +9786,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>20</v>
@@ -9800,7 +9800,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -9814,13 +9814,13 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -9828,7 +9828,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>20</v>
@@ -9896,7 +9896,7 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9910,7 +9910,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -9926,7 +9926,7 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9971,7 +9971,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -10019,7 +10019,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -10047,13 +10047,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10061,7 +10061,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -10075,7 +10075,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -10128,7 +10128,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -10151,12 +10151,12 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -10165,7 +10165,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -10179,7 +10179,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -10199,7 +10199,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>73</v>
@@ -10227,13 +10227,13 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,13 +10275,13 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10301,12 +10301,12 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -10315,7 +10315,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -10329,7 +10329,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -10343,13 +10343,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
@@ -10391,13 +10391,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -10447,13 +10447,13 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10467,7 +10467,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -10529,7 +10529,7 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -10543,7 +10543,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -10557,7 +10557,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -10571,7 +10571,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -10591,7 +10591,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10619,13 +10619,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10692,13 +10692,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -10731,7 +10731,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10854,7 +10854,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10952,7 +10952,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -11271,7 +11271,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11316,7 +11316,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -11330,13 +11330,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11344,7 +11344,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -11358,7 +11358,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11392,7 +11392,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -11406,7 +11406,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11440,13 +11440,13 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11460,7 +11460,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -11480,18 +11480,18 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -11500,7 +11500,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -11514,7 +11514,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -11528,7 +11528,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -11542,7 +11542,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -11562,13 +11562,13 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -11590,7 +11590,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -11604,13 +11604,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11624,7 +11624,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11638,13 +11638,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -11666,7 +11666,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -11694,7 +11694,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
@@ -11720,7 +11720,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11734,7 +11734,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -11762,7 +11762,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
@@ -11788,7 +11788,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11810,7 +11810,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -11824,7 +11824,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
@@ -11846,7 +11846,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11891,13 +11891,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11905,13 +11905,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11925,7 +11925,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11939,7 +11939,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -11967,18 +11967,18 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -11987,7 +11987,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -12001,7 +12001,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>73</v>
@@ -12012,7 +12012,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -12021,13 +12021,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12055,13 +12055,13 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12075,7 +12075,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -12095,13 +12095,13 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12109,7 +12109,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -12151,7 +12151,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12666,7 +12666,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12761,7 +12761,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13293,7 +13293,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -14152,7 +14152,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -14169,7 +14169,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15331,7 +15331,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15519,7 +15519,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>721</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -15542,7 +15542,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -15576,7 +15576,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -15590,7 +15590,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -15604,7 +15604,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -15618,13 +15618,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -15666,7 +15666,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -15680,7 +15680,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -15708,13 +15708,13 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -15756,7 +15756,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -15784,7 +15784,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
@@ -15804,7 +15804,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -15824,7 +15824,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -15852,7 +15852,7 @@
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15866,13 +15866,13 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -15880,7 +15880,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -15894,7 +15894,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -15908,7 +15908,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
@@ -15962,7 +15962,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -15970,13 +15970,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -15990,7 +15990,7 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16004,7 +16004,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
@@ -16046,7 +16046,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -16060,7 +16060,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -16080,7 +16080,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16088,13 +16088,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -16108,13 +16108,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -16122,13 +16122,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -16156,7 +16156,7 @@
         <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -16170,7 +16170,7 @@
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
@@ -16184,7 +16184,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -16198,7 +16198,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -16218,7 +16218,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -16232,7 +16232,7 @@
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -16246,13 +16246,13 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -16274,13 +16274,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -16294,13 +16294,13 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -16308,13 +16308,13 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -16330,13 +16330,13 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -16375,7 +16375,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -16389,13 +16389,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16437,7 +16437,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16445,13 +16445,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -16465,7 +16465,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -16504,7 +16504,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>720</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -16513,7 +16513,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -16527,7 +16527,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -16541,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -16555,7 +16555,7 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -16589,7 +16589,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -16603,13 +16603,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -16617,7 +16617,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -16679,13 +16679,13 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -16693,13 +16693,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16727,7 +16727,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -16761,7 +16761,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -16769,7 +16769,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -16797,13 +16797,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -16817,7 +16817,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -16845,7 +16845,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -16927,7 +16927,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -16955,7 +16955,7 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -16969,7 +16969,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
@@ -17059,7 +17059,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -17073,7 +17073,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -17107,7 +17107,7 @@
         <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
@@ -17169,7 +17169,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -17183,7 +17183,7 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -17191,13 +17191,13 @@
         <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -17211,7 +17211,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
@@ -17225,7 +17225,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>73</v>
@@ -17245,7 +17245,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -17259,7 +17259,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
@@ -17273,13 +17273,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -17293,12 +17293,12 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -17307,7 +17307,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>20</v>
@@ -17327,7 +17327,7 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>20</v>
@@ -17371,7 +17371,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17416,13 +17416,13 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17444,7 +17444,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -17458,7 +17458,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -17472,13 +17472,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17520,13 +17520,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17534,13 +17534,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -17554,7 +17554,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17568,13 +17568,13 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -17596,13 +17596,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -17616,7 +17616,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -17636,7 +17636,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17655,7 +17655,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -17664,13 +17664,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17692,13 +17692,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17718,7 +17718,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -17726,7 +17726,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -17740,7 +17740,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -17754,13 +17754,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17768,7 +17768,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -17802,7 +17802,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -17816,13 +17816,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17830,7 +17830,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -17844,13 +17844,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17864,7 +17864,7 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -17878,13 +17878,13 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -17892,7 +17892,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -17906,7 +17906,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -17931,7 +17931,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -17940,7 +17940,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -17954,7 +17954,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -17968,7 +17968,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -17982,7 +17982,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -17996,7 +17996,7 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -18022,7 +18022,7 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -18030,13 +18030,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>73</v>
@@ -18078,7 +18078,7 @@
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -18092,7 +18092,7 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -18132,7 +18132,7 @@
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -18146,13 +18146,13 @@
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -18202,13 +18202,13 @@
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -18224,7 +18224,7 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18297,7 +18297,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -18325,7 +18325,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -18364,13 +18364,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -18381,7 +18381,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -18392,7 +18392,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18401,7 +18401,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -18415,7 +18415,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -18457,13 +18457,13 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -18477,7 +18477,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -18505,13 +18505,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -18525,7 +18525,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -18539,12 +18539,12 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -18553,7 +18553,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -18567,13 +18567,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -18581,13 +18581,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -18609,18 +18609,18 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -18629,7 +18629,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -18663,7 +18663,7 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -18677,13 +18677,13 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -18705,13 +18705,13 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -18739,13 +18739,13 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -18753,13 +18753,13 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -18767,13 +18767,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -18787,7 +18787,7 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -18801,7 +18801,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -18815,7 +18815,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
@@ -18835,13 +18835,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
@@ -18849,7 +18849,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>73</v>
@@ -18872,7 +18872,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18908,7 +18908,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -18917,13 +18917,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18931,7 +18931,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -18945,7 +18945,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -18965,13 +18965,13 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -18979,13 +18979,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -18993,13 +18993,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -19013,7 +19013,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -19021,7 +19021,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -19041,7 +19041,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -19055,7 +19055,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -19069,7 +19069,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -19083,13 +19083,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -19117,7 +19117,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -19131,13 +19131,13 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -19151,13 +19151,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -19165,7 +19165,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -19190,7 +19190,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -19199,7 +19199,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -19219,7 +19219,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -19227,7 +19227,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -19261,7 +19261,7 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -19275,7 +19275,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -19289,7 +19289,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -19303,13 +19303,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -19323,7 +19323,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -19331,13 +19331,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -19365,7 +19365,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -19393,13 +19393,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -19413,13 +19413,13 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
+        <v>440</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
         <v>442</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -19441,7 +19441,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -19455,7 +19455,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -19475,7 +19475,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -19509,7 +19509,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -19517,7 +19517,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4895" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C795C010-BEC6-4E65-ADCB-0A0147841E53}"/>
+  <xr:revisionPtr revIDLastSave="4902" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0EC361-29C1-4A12-AB45-524FF32459D3}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="7" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -34,8 +34,6 @@
     <sheet name="2019" sheetId="26" r:id="rId19"/>
     <sheet name="2020" sheetId="27" r:id="rId20"/>
     <sheet name="Stats" sheetId="1" r:id="rId21"/>
-    <sheet name="Wins-Losses" sheetId="28" r:id="rId22"/>
-    <sheet name="Winning Percentile Range" sheetId="29" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2714,7 +2712,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C576-4F3D-A545-45F79A960AA5}"/>
+              <c16:uniqueId val="{00000000-C672-4F4E-8C2E-A74A83414693}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2882,7 +2880,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C576-4F3D-A545-45F79A960AA5}"/>
+              <c16:uniqueId val="{00000001-C672-4F4E-8C2E-A74A83414693}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3184,6 +3182,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3460,7 +3463,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC74-4545-A71B-7E29427769C8}"/>
+              <c16:uniqueId val="{00000001-64B5-4228-A9DA-22BDE6991B77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3762,6 +3765,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4851,45 +4859,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14A91E53-3928-4119-9DE8-24D1A3E791B1}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{548B1B85-60FD-4314-9118-8CAF35106C63}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1B698B-535A-EDF5-FCA4-E01785C89907}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE63D6F9-60FF-4FE5-1803-D4B5209995AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4902,27 +4896,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523F9CED-08CE-1D80-AB90-D4ECCA6AF6E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5999C845-DEAF-950C-0FDC-0F7005ED75A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4930,13 +4927,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5241,7 +5242,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5308,7 +5309,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6082,7 +6083,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7014,7 +7015,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8157,7 +8158,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8901,7 +8902,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9926,7 +9927,7 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10731,7 +10732,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10854,7 +10855,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11271,7 +11272,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11846,7 +11847,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12151,7 +12152,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12666,7 +12667,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12762,7 +12763,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13283,6 +13284,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13293,7 +13295,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14169,7 +14171,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15331,7 +15333,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16330,7 +16332,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17371,7 +17373,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18224,7 +18226,7 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18872,7 +18874,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4902" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0EC361-29C1-4A12-AB45-524FF32459D3}"/>
+  <xr:revisionPtr revIDLastSave="4907" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05EF140D-DE58-48D2-9CF0-8B938776086E}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="7" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -2059,9 +2059,6 @@
     <t>6-7(4) 6-3 6-3</t>
   </si>
   <si>
-    <t>Alexandra Panova</t>
-  </si>
-  <si>
     <t>Zarina Diyas (KAZAKHSTAN)</t>
   </si>
   <si>
@@ -2149,9 +2146,6 @@
     <t>Sesil Karatantcheva (BULGARIA)</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-2 7-6(6)</t>
   </si>
   <si>
@@ -2182,9 +2176,6 @@
     <t>7-6(8) 6-0</t>
   </si>
   <si>
-    <t>Viktória Kužmová (SLOVAKIA)</t>
-  </si>
-  <si>
     <t>4-6 7-6(4) 5-0 RETIRED</t>
   </si>
   <si>
@@ -2219,6 +2210,15 @@
   </si>
   <si>
     <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Viktória Hrunčáková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Alexandra Panova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -5932,7 +5932,7 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -9927,8 +9927,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10048,13 +10048,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>668</v>
+        <v>721</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10062,7 +10062,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -10166,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -10180,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -10200,7 +10200,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10276,7 +10276,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
@@ -10302,12 +10302,12 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -10330,7 +10330,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -10350,7 +10350,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10392,13 +10392,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>676</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
         <v>677</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -10530,7 +10530,7 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -10544,7 +10544,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -10572,7 +10572,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -10592,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10626,7 +10626,7 @@
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10699,7 +10699,7 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -10855,7 +10855,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -11272,8 +11272,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11317,7 +11317,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -11359,7 +11359,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
@@ -11393,7 +11393,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -11407,7 +11407,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -11432,7 +11432,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11441,13 +11441,13 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11461,7 +11461,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -11487,12 +11487,12 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -11501,7 +11501,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -11543,7 +11543,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -11569,7 +11569,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11591,7 +11591,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -11605,13 +11605,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11639,7 +11639,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -11667,7 +11667,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -11721,7 +11721,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11735,7 +11735,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -11749,7 +11749,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -11789,7 +11789,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -11848,7 +11848,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11892,13 +11892,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11906,13 +11906,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11926,7 +11926,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11940,7 +11940,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -11979,7 +11979,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -11988,7 +11988,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -12002,7 +12002,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>73</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -12022,13 +12022,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12056,13 +12056,13 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12076,7 +12076,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -12762,8 +12762,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -14154,7 +14154,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -16506,7 +16506,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18038,7 +18038,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -18394,7 +18394,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>

--- a/Tennis/WTA Tour/Maria Sharapova.xlsx
+++ b/Tennis/WTA Tour/Maria Sharapova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4907" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05EF140D-DE58-48D2-9CF0-8B938776086E}"/>
+  <xr:revisionPtr revIDLastSave="4910" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439E52E9-AB3E-46FA-A9C7-E47054A5524F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -1495,9 +1495,6 @@
     <t>Elena Vesnina (RUSSIA)</t>
   </si>
   <si>
-    <t>FED CUP</t>
-  </si>
-  <si>
     <t>Tzipora Obziler (ISRAEL)</t>
   </si>
   <si>
@@ -1693,9 +1690,6 @@
     <t>Vera Dushevina (RUSSIA)</t>
   </si>
   <si>
-    <t>INTERNATIONAUX DE STRASBOURG</t>
-  </si>
-  <si>
     <t>Dia Evtimova (BULGARIA)</t>
   </si>
   <si>
@@ -2219,6 +2213,12 @@
   </si>
   <si>
     <t>Alexandra Panova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>STRASBOURG GRAND PRIX</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
   </si>
 </sst>
 </file>
@@ -5309,13 +5309,13 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -5354,13 +5354,13 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5388,7 +5388,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -5402,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -5430,7 +5430,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -5450,13 +5450,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5464,18 +5464,18 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>546</v>
+        <v>720</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -5504,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -5518,7 +5518,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -5532,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -5560,7 +5560,7 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -5580,7 +5580,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -5594,7 +5594,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -5614,7 +5614,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5628,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -5656,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -5704,7 +5704,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -5718,7 +5718,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -5732,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -5752,7 +5752,7 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5766,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -5780,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -5856,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -5898,13 +5898,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>558</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
         <v>560</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,13 +5932,13 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5960,7 +5960,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -5994,13 +5994,13 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6020,7 +6020,7 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,8 +6083,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -6128,7 +6128,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -6156,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -6190,13 +6190,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -6218,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -6229,13 +6229,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>721</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -6255,13 +6255,13 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,13 +6297,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6331,7 +6331,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -6345,7 +6345,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -6373,13 +6373,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6387,13 +6387,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -6421,13 +6421,13 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6449,7 +6449,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -6503,7 +6503,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,13 +6559,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6593,7 +6593,7 @@
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6601,7 +6601,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -6649,13 +6649,13 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -6691,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -6745,7 +6745,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6773,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
@@ -6855,7 +6855,7 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6869,7 +6869,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6883,13 +6883,13 @@
         <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6897,7 +6897,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -6917,7 +6917,7 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,13 +6945,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,7 +6965,7 @@
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7015,8 +7015,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7060,7 +7060,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -7074,7 +7074,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -7102,13 +7102,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7155,7 +7155,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>721</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -7181,7 +7181,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -7215,7 +7215,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -7257,13 +7257,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7277,7 +7277,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7311,7 +7311,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7395,13 +7395,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7448,7 +7448,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -7457,7 +7457,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -7539,7 +7539,7 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7581,7 +7581,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7595,7 +7595,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -7609,7 +7609,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -7623,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -7643,7 +7643,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -7719,7 +7719,7 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -7741,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
@@ -7775,7 +7775,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
@@ -7789,13 +7789,13 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -7879,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -7899,7 +7899,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7913,7 +7913,7 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7927,7 +7927,7 @@
         <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7941,13 +7941,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7975,7 +7975,7 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,7 +8017,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>20</v>
@@ -8037,7 +8037,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -8099,7 +8099,7 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8158,8 +8158,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D40:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8203,7 +8203,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -8217,7 +8217,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -8245,7 +8245,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8293,7 +8293,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -8369,7 +8369,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -8383,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -8403,7 +8403,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -8521,7 +8521,7 @@
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8541,7 +8541,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8569,7 +8569,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8588,7 +8588,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -8597,7 +8597,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -8617,7 +8617,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8625,7 +8625,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -8639,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -8687,7 +8687,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -8735,7 +8735,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -8763,7 +8763,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -8797,7 +8797,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8811,7 +8811,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8839,7 +8839,7 @@
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
@@ -8853,7 +8853,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
@@ -8879,7 +8879,7 @@
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -8902,8 +8902,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8947,7 +8947,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -8961,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
@@ -8975,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -9009,7 +9009,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -9023,13 +9023,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9037,13 +9037,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9051,7 +9051,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -9085,7 +9085,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -9119,7 +9119,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -9133,13 +9133,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9153,7 +9153,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -9173,7 +9173,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9181,7 +9181,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -9235,7 +9235,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9243,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -9325,7 +9325,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9353,7 +9353,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9381,7 +9381,7 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9395,7 +9395,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -9429,7 +9429,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -9457,7 +9457,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -9477,7 +9477,7 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9485,13 +9485,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9505,7 +9505,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9519,7 +9519,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9533,7 +9533,7 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -9547,7 +9547,7 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -9561,7 +9561,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -9581,7 +9581,7 @@
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,13 +9595,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9609,13 +9609,13 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9635,7 +9635,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9643,13 +9643,13 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9663,7 +9663,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9691,7 +9691,7 @@
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -9705,7 +9705,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -9719,7 +9719,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -9739,7 +9739,7 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9759,7 +9759,7 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9767,7 +9767,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>18</v>
@@ -9787,7 +9787,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>20</v>
@@ -9801,7 +9801,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -9815,13 +9815,13 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,7 +9897,7 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9911,7 +9911,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -9927,7 +9927,7 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -9972,7 +9972,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -9986,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -10020,7 +10020,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10034,7 +10034,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -10048,13 +10048,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10062,7 +10062,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -10076,7 +10076,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>721</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -10166,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -10180,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -10200,7 +10200,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>73</v>
@@ -10228,7 +10228,7 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -10276,13 +10276,13 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10302,12 +10302,12 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -10316,7 +10316,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -10330,7 +10330,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -10344,13 +10344,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10392,13 +10392,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -10448,7 +10448,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -10468,7 +10468,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -10530,7 +10530,7 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -10544,7 +10544,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -10558,7 +10558,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -10572,7 +10572,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -10592,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10620,13 +10620,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10693,13 +10693,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>480</v>
+        <v>721</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -10856,7 +10856,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -11272,7 +11272,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11317,7 +11317,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -11331,13 +11331,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11345,7 +11345,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -11359,7 +11359,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11373,13 +11373,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11393,7 +11393,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -11407,7 +11407,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -11432,7 +11432,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11441,13 +11441,13 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11461,7 +11461,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -11481,18 +11481,18 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -11501,7 +11501,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -11515,7 +11515,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -11529,7 +11529,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -11543,7 +11543,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -11563,13 +11563,13 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11577,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -11591,7 +11591,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -11605,13 +11605,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11639,7 +11639,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -11667,7 +11667,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -11695,7 +11695,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
@@ -11721,7 +11721,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11735,7 +11735,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -11749,7 +11749,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -11763,7 +11763,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
@@ -11789,7 +11789,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -11825,7 +11825,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11892,13 +11892,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11906,13 +11906,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11926,7 +11926,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -11940,7 +11940,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -11968,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -11979,7 +11979,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -11988,7 +11988,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -12002,7 +12002,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>73</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -12022,13 +12022,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12056,13 +12056,13 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12076,7 +12076,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -12096,7 +12096,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -12110,7 +12110,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -14154,7 +14154,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -16506,7 +16506,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18038,7 +18038,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -18366,13 +18366,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>721</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -18403,7 +18403,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -18465,7 +18465,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -18479,7 +18479,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -18507,13 +18507,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -18541,12 +18541,12 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -18555,7 +18555,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -18569,13 +18569,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -18583,13 +18583,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -18611,18 +18611,18 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -18631,7 +18631,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -18665,7 +18665,7 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -18679,13 +18679,13 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -18713,7 +18713,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -18741,13 +18741,13 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
+        <v>500</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>501</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -18755,13 +18755,13 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -18769,13 +18769,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -18789,7 +18789,7 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -18803,7 +18803,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -18837,13 +18837,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
@@ -18910,7 +18910,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -18925,7 +18925,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18933,7 +18933,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -18947,7 +18947,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -18967,13 +18967,13 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -18987,7 +18987,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -18995,13 +18995,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -19015,7 +19015,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -19023,7 +19023,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -19043,7 +19043,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -19057,7 +19057,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -19085,13 +19085,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>518</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>519</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -19119,7 +19119,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -19133,13 +19133,13 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -19159,7 +19159,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -19192,7 +19192,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -19201,7 +19201,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -19221,7 +19221,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -19229,7 +19229,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -19263,7 +19263,7 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -19291,7 +19291,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -19311,7 +19311,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -19325,7 +19325,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -19333,13 +19333,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -19395,13 +19395,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -19443,7 +19443,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -19477,7 +19477,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -19511,7 +19511,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -19519,7 +19519,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
